--- a/data/Simulations/PT1/Distribution_Network_PT1/Distribution_Network_PT1_2020.xlsx
+++ b/data/Simulations/PT1/Distribution_Network_PT1/Distribution_Network_PT1_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\Simulations\PT1\Distribution_Network_PT1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DC96BF-FBF9-4251-B643-7B5CD7D5BE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B40F4CF-A6DA-4A2F-99C1-4F2F86D02608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -141,11 +141,11 @@
       <sheetName val="Flexibility, Winter"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5">
         <row r="2">
           <cell r="B2">
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,11 +506,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>5/7</f>
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/7</f>
@@ -10746,7 +10745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A8991D-188B-4DB9-8EE8-D66F8C7A01FC}">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>

--- a/data/Simulations/PT1/Distribution_Network_PT1/Distribution_Network_PT1_2020.xlsx
+++ b/data/Simulations/PT1/Distribution_Network_PT1/Distribution_Network_PT1_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\Simulations\PT1\Distribution_Network_PT1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B40F4CF-A6DA-4A2F-99C1-4F2F86D02608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E6382E-A071-465F-ADAF-5FB0B754B5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,13 @@
       <sheetName val="Flexibility, Winter"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="B6">
+            <v>0.01</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -492,7 +498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -10745,8 +10751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A8991D-188B-4DB9-8EE8-D66F8C7A01FC}">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20937,8 +20943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1171740E-2970-4C08-A4AB-F269375E377E}">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="A1:Y101"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56:Y56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67690,7 +67696,7 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67859,7 +67865,7 @@
   <dimension ref="A1:Y101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y101"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/Simulations/PT1/Distribution_Network_PT1/Distribution_Network_PT1_2020.xlsx
+++ b/data/Simulations/PT1/Distribution_Network_PT1/Distribution_Network_PT1_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\Simulations\PT1\Distribution_Network_PT1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E6382E-A071-465F-ADAF-5FB0B754B5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E271240-8B05-44C6-BFD7-3FE47AA2FA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -498,16 +498,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +526,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -534,7 +534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -542,7 +542,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -563,9 +563,9 @@
       <selection activeCell="E86" sqref="A1:Y101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -642,7 +642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -743,7 +743,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6</v>
       </c>
@@ -844,7 +844,7 @@
         <v>8.7561602500000008E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7</v>
       </c>
@@ -945,7 +945,7 @@
         <v>3.5581520999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>3.6417921250000008E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>2.4433873750000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>0.15574149168750001</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>11</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>2.8926276400000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>12</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>9.2021762500000008E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>14</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>8.4241035462500016E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>15</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>1.1188922375000002E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>16</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>1.2775847500000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>17</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>2.5389078749999999E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>18</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>6.7932488750000006E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>19</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>2.5444968124999998E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>20</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>4.9271291337499995E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>23</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>2.9992747250000003E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>26</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>1.2778228000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>27</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>2.4790945000000003E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>28</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>3.4919463749999999E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>29</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>1.5616889999999998E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>30</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>7.6761371499999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>31</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>9.4762233750000013E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>32</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>5.9153616125000013E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>33</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>2.3363216412500002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>34</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>7.4089912500000015E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>35</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>5.0483460000000011E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>36</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>4.1013875000000003E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>38</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>4.1518676749999995E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>39</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>6.6988493124999996E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>42</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>2.1230766249999999E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>43</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>6.0577481249999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>44</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>4.8345179624999998E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>46</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>5.0501359875E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>47</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>1.3781500237500001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>48</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>7.9052162499999989E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>49</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>1.2741091875000002E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>50</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>2.7339628749999996E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>52</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>5.7388091249999996E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>53</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>1.1180165862500001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>55</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>1.6994237374999999E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>56</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>5.0074382500000006E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>57</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>4.6039736250000005E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>58</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>6.1770797500000012E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>61</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>3.5426589212500005E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>62</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>1.0286641250000001E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>63</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>6.7584037500000008E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>64</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>1.2173738850000003E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>65</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>2.4067362600000003E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>66</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>1.0941023062499999E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>67</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>1.4835145250000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>68</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>6.2693067375E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>70</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>3.9427588500000003E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>71</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>5.5449792500000014E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>72</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>5.1140841249999996E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>74</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>4.8639707500000004E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>75</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>6.1469638749999996E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>76</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>6.1154662500000013E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>77</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>1.3499826750000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>78</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>2.8766092375000006E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>79</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>6.8466054875000008E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>81</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>1.124644E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>82</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>4.1440707500000002E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>83</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>4.4127257375000005E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>84</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>6.3782406250000002E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>85</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>7.3077410000000004E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>87</v>
       </c>
@@ -7308,7 +7308,7 @@
         <v>2.0941017249999998E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>88</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>1.217606325E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>89</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>6.5575621250000009E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>90</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>1.2025290500000002E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>91</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>1.8437090875000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>92</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>8.7039062499999999E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>93</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>2.5500317625000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>94</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>2.3062015125000002E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>95</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>6.7960674375000009E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>97</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>6.0043893749999995E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>99</v>
       </c>
@@ -8318,7 +8318,7 @@
         <v>1.3238043599999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>100</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>1.3042255375000002E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>102</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>1.5210229112499999E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>105</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>1.456903375E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>104</v>
       </c>
@@ -8722,7 +8722,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>45</v>
       </c>
@@ -8823,7 +8823,7 @@
         <v>1.4359194999999999E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>40</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>1.2730405000000002E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>73</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>9.9679892500000012E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>25</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>7.9626673750000021E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>59</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>2.4362684875000001E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>96</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>1.1335114000000002E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>41</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>1.1916782500000001E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>98</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>24</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>4.5268185624999999E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>60</v>
       </c>
@@ -9732,7 +9732,7 @@
         <v>1.3304969875000002E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>21</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>5.0232900000000005E-5</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>86</v>
       </c>
@@ -9934,7 +9934,7 @@
         <v>3.0801945749999999E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>54</v>
       </c>
@@ -10035,7 +10035,7 @@
         <v>3.5576824999999994E-4</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>22</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>4.0989183749999992E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>103</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>2.648296025E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>69</v>
       </c>
@@ -10338,7 +10338,7 @@
         <v>1.4596987124999999E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>13</v>
       </c>
@@ -10439,7 +10439,7 @@
         <v>1.6566599250000002E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>51</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>8.4044012500000007E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>101</v>
       </c>
@@ -10641,7 +10641,7 @@
         <v>3.4735183749999999E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>37</v>
       </c>
@@ -10751,13 +10751,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A8991D-188B-4DB9-8EE8-D66F8C7A01FC}">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -10834,7 +10834,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6</v>
       </c>
@@ -11036,7 +11036,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8</v>
       </c>
@@ -11238,7 +11238,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -11440,7 +11440,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>11</v>
       </c>
@@ -11541,7 +11541,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>12</v>
       </c>
@@ -11642,7 +11642,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>14</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>15</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>16</v>
       </c>
@@ -11945,7 +11945,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>17</v>
       </c>
@@ -12046,7 +12046,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>18</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>19</v>
       </c>
@@ -12248,7 +12248,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>20</v>
       </c>
@@ -12349,7 +12349,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>23</v>
       </c>
@@ -12450,7 +12450,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>26</v>
       </c>
@@ -12551,7 +12551,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>27</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>28</v>
       </c>
@@ -12753,7 +12753,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>29</v>
       </c>
@@ -12854,7 +12854,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>30</v>
       </c>
@@ -12955,7 +12955,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>31</v>
       </c>
@@ -13056,7 +13056,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>32</v>
       </c>
@@ -13157,7 +13157,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>33</v>
       </c>
@@ -13258,7 +13258,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>34</v>
       </c>
@@ -13359,7 +13359,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>35</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>36</v>
       </c>
@@ -13561,7 +13561,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>38</v>
       </c>
@@ -13662,7 +13662,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>39</v>
       </c>
@@ -13763,7 +13763,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>42</v>
       </c>
@@ -13864,7 +13864,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>43</v>
       </c>
@@ -13965,7 +13965,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>44</v>
       </c>
@@ -14066,7 +14066,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>46</v>
       </c>
@@ -14167,7 +14167,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>47</v>
       </c>
@@ -14268,7 +14268,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>48</v>
       </c>
@@ -14369,7 +14369,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>49</v>
       </c>
@@ -14470,7 +14470,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>50</v>
       </c>
@@ -14571,7 +14571,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>52</v>
       </c>
@@ -14672,7 +14672,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>53</v>
       </c>
@@ -14773,7 +14773,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>55</v>
       </c>
@@ -14874,7 +14874,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>56</v>
       </c>
@@ -14975,7 +14975,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>57</v>
       </c>
@@ -15076,7 +15076,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>58</v>
       </c>
@@ -15177,7 +15177,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>61</v>
       </c>
@@ -15278,7 +15278,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>62</v>
       </c>
@@ -15379,7 +15379,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>63</v>
       </c>
@@ -15480,7 +15480,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>64</v>
       </c>
@@ -15581,7 +15581,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>65</v>
       </c>
@@ -15682,7 +15682,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>66</v>
       </c>
@@ -15783,7 +15783,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>67</v>
       </c>
@@ -15884,7 +15884,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>68</v>
       </c>
@@ -15985,7 +15985,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>70</v>
       </c>
@@ -16086,7 +16086,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>71</v>
       </c>
@@ -16187,7 +16187,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>72</v>
       </c>
@@ -16288,7 +16288,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>74</v>
       </c>
@@ -16389,7 +16389,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>75</v>
       </c>
@@ -16490,7 +16490,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>76</v>
       </c>
@@ -16591,7 +16591,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>77</v>
       </c>
@@ -16692,7 +16692,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>78</v>
       </c>
@@ -16793,7 +16793,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>79</v>
       </c>
@@ -16894,7 +16894,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>81</v>
       </c>
@@ -16995,7 +16995,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>82</v>
       </c>
@@ -17096,7 +17096,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>83</v>
       </c>
@@ -17197,7 +17197,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>84</v>
       </c>
@@ -17298,7 +17298,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>85</v>
       </c>
@@ -17399,7 +17399,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>87</v>
       </c>
@@ -17500,7 +17500,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>88</v>
       </c>
@@ -17601,7 +17601,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>89</v>
       </c>
@@ -17702,7 +17702,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>90</v>
       </c>
@@ -17803,7 +17803,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>91</v>
       </c>
@@ -17904,7 +17904,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>92</v>
       </c>
@@ -18005,7 +18005,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>93</v>
       </c>
@@ -18106,7 +18106,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>94</v>
       </c>
@@ -18207,7 +18207,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>95</v>
       </c>
@@ -18308,7 +18308,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>97</v>
       </c>
@@ -18409,7 +18409,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>99</v>
       </c>
@@ -18510,7 +18510,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>100</v>
       </c>
@@ -18611,7 +18611,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>102</v>
       </c>
@@ -18712,7 +18712,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>105</v>
       </c>
@@ -18813,7 +18813,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>104</v>
       </c>
@@ -18914,7 +18914,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>45</v>
       </c>
@@ -19015,7 +19015,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>40</v>
       </c>
@@ -19116,7 +19116,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>73</v>
       </c>
@@ -19217,7 +19217,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>25</v>
       </c>
@@ -19318,7 +19318,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>59</v>
       </c>
@@ -19419,7 +19419,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>96</v>
       </c>
@@ -19520,7 +19520,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>41</v>
       </c>
@@ -19621,7 +19621,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>98</v>
       </c>
@@ -19722,7 +19722,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>24</v>
       </c>
@@ -19823,7 +19823,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>60</v>
       </c>
@@ -19924,7 +19924,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>21</v>
       </c>
@@ -20025,7 +20025,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>86</v>
       </c>
@@ -20126,7 +20126,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>54</v>
       </c>
@@ -20227,7 +20227,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>22</v>
       </c>
@@ -20328,7 +20328,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>103</v>
       </c>
@@ -20429,7 +20429,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>69</v>
       </c>
@@ -20530,7 +20530,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>13</v>
       </c>
@@ -20631,7 +20631,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>51</v>
       </c>
@@ -20732,7 +20732,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>101</v>
       </c>
@@ -20833,7 +20833,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>37</v>
       </c>
@@ -20943,13 +20943,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1171740E-2970-4C08-A4AB-F269375E377E}">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B56" sqref="B56:Y56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -21026,7 +21026,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21103,7 +21103,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6</v>
       </c>
@@ -21180,7 +21180,7 @@
         <v>1.7512320500000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7</v>
       </c>
@@ -21257,7 +21257,7 @@
         <v>7.1163041999999996E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8</v>
       </c>
@@ -21334,7 +21334,7 @@
         <v>7.2835842500000008E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9</v>
       </c>
@@ -21411,7 +21411,7 @@
         <v>0.48867747499999997</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -21488,7 +21488,7 @@
         <v>3.11482983375</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>11</v>
       </c>
@@ -21565,7 +21565,7 @@
         <v>0.57852552800000001</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>12</v>
       </c>
@@ -21642,7 +21642,7 @@
         <v>1.8404352500000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>14</v>
       </c>
@@ -21719,7 +21719,7 @@
         <v>1.6848207092500003</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>15</v>
       </c>
@@ -21796,7 +21796,7 @@
         <v>2.2377844750000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>16</v>
       </c>
@@ -21873,7 +21873,7 @@
         <v>2.5551694999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>17</v>
       </c>
@@ -21950,7 +21950,7 @@
         <v>5.0778157499999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>18</v>
       </c>
@@ -22027,7 +22027,7 @@
         <v>1.3586497750000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>19</v>
       </c>
@@ -22104,7 +22104,7 @@
         <v>5.0889936249999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>20</v>
       </c>
@@ -22181,7 +22181,7 @@
         <v>0.9854258267499999</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>23</v>
       </c>
@@ -22258,7 +22258,7 @@
         <v>5.99854945E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>26</v>
       </c>
@@ -22335,7 +22335,7 @@
         <v>2.5556456000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>27</v>
       </c>
@@ -22412,7 +22412,7 @@
         <v>4.958189E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>28</v>
       </c>
@@ -22489,7 +22489,7 @@
         <v>6.9838927499999995E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>29</v>
       </c>
@@ -22566,7 +22566,7 @@
         <v>3.1233779999999996E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>30</v>
       </c>
@@ -22643,7 +22643,7 @@
         <v>0.15352274299999999</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>31</v>
       </c>
@@ -22720,7 +22720,7 @@
         <v>1.8952446750000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>32</v>
       </c>
@@ -22797,7 +22797,7 @@
         <v>0.11830723225000002</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>33</v>
       </c>
@@ -22874,7 +22874,7 @@
         <v>0.46726432825000003</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>34</v>
       </c>
@@ -22951,7 +22951,7 @@
         <v>1.4817982500000002E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>35</v>
       </c>
@@ -23028,7 +23028,7 @@
         <v>1.0096692000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>36</v>
       </c>
@@ -23105,7 +23105,7 @@
         <v>8.2027750000000007E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>38</v>
       </c>
@@ -23182,7 +23182,7 @@
         <v>8.3037353499999994E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>39</v>
       </c>
@@ -23259,7 +23259,7 @@
         <v>0.13397698624999999</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>42</v>
       </c>
@@ -23336,7 +23336,7 @@
         <v>4.2461532499999998E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>43</v>
       </c>
@@ -23413,7 +23413,7 @@
         <v>0.12115496249999999</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>44</v>
       </c>
@@ -23490,7 +23490,7 @@
         <v>9.6690359249999996E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>46</v>
       </c>
@@ -23567,7 +23567,7 @@
         <v>0.10100271975</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>47</v>
       </c>
@@ -23644,7 +23644,7 @@
         <v>0.27563000474999999</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>48</v>
       </c>
@@ -23721,7 +23721,7 @@
         <v>1.5810432499999997E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>49</v>
       </c>
@@ -23798,7 +23798,7 @@
         <v>2.5482183750000002E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>50</v>
       </c>
@@ -23875,7 +23875,7 @@
         <v>5.467925749999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>52</v>
       </c>
@@ -23952,7 +23952,7 @@
         <v>1.1477618249999998E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>53</v>
       </c>
@@ -24029,7 +24029,7 @@
         <v>0.22360331725000002</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>55</v>
       </c>
@@ -24106,7 +24106,7 @@
         <v>3.3988474749999997E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>56</v>
       </c>
@@ -24183,7 +24183,7 @@
         <v>1.00148765E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>57</v>
       </c>
@@ -24260,7 +24260,7 @@
         <v>9.2079472500000009E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>58</v>
       </c>
@@ -24337,7 +24337,7 @@
         <v>1.2354159500000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>61</v>
       </c>
@@ -24414,7 +24414,7 @@
         <v>0.70853178425000007</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>62</v>
       </c>
@@ -24491,7 +24491,7 @@
         <v>2.0573282500000001E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>63</v>
       </c>
@@ -24568,7 +24568,7 @@
         <v>1.3516807500000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>64</v>
       </c>
@@ -24645,7 +24645,7 @@
         <v>0.24347477700000003</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>65</v>
       </c>
@@ -24722,7 +24722,7 @@
         <v>0.481347252</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>66</v>
       </c>
@@ -24799,7 +24799,7 @@
         <v>0.21882046124999999</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>67</v>
       </c>
@@ -24876,7 +24876,7 @@
         <v>2.9670290500000002E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>68</v>
       </c>
@@ -24953,7 +24953,7 @@
         <v>0.12538613474999999</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>70</v>
       </c>
@@ -25030,7 +25030,7 @@
         <v>7.8855176999999999E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>71</v>
       </c>
@@ -25107,7 +25107,7 @@
         <v>1.1089958500000002E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>72</v>
       </c>
@@ -25184,7 +25184,7 @@
         <v>1.0228168249999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>74</v>
       </c>
@@ -25261,7 +25261,7 @@
         <v>9.7279415000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>75</v>
       </c>
@@ -25338,7 +25338,7 @@
         <v>0.12293927749999999</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>76</v>
       </c>
@@ -25415,7 +25415,7 @@
         <v>1.2230932500000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>77</v>
       </c>
@@ -25492,7 +25492,7 @@
         <v>2.6999653500000002E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>78</v>
       </c>
@@ -25569,7 +25569,7 @@
         <v>5.7532184750000007E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>79</v>
       </c>
@@ -25646,7 +25646,7 @@
         <v>0.13693210975</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>81</v>
       </c>
@@ -25723,7 +25723,7 @@
         <v>2.2492879999999999E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>82</v>
       </c>
@@ -25800,7 +25800,7 @@
         <v>8.2881415000000003E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>83</v>
       </c>
@@ -25877,7 +25877,7 @@
         <v>8.8254514749999999E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>84</v>
       </c>
@@ -25954,7 +25954,7 @@
         <v>1.275648125E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>85</v>
       </c>
@@ -26031,7 +26031,7 @@
         <v>1.4615482000000001E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>87</v>
       </c>
@@ -26108,7 +26108,7 @@
         <v>4.1882034499999998E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>88</v>
       </c>
@@ -26185,7 +26185,7 @@
         <v>2.4352126499999998E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>89</v>
       </c>
@@ -26262,7 +26262,7 @@
         <v>1.311512425E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>90</v>
       </c>
@@ -26339,7 +26339,7 @@
         <v>2.4050581000000001E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>91</v>
       </c>
@@ -26416,7 +26416,7 @@
         <v>3.6874181749999999E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>92</v>
       </c>
@@ -26493,7 +26493,7 @@
         <v>1.7407812499999999E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>93</v>
       </c>
@@ -26570,7 +26570,7 @@
         <v>5.1000635250000002E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>94</v>
       </c>
@@ -26647,7 +26647,7 @@
         <v>4.6124030250000003E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>95</v>
       </c>
@@ -26724,7 +26724,7 @@
         <v>0.13592134875</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>97</v>
       </c>
@@ -26801,7 +26801,7 @@
         <v>1.2008778749999999E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>99</v>
       </c>
@@ -26878,7 +26878,7 @@
         <v>0.26476087199999998</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>100</v>
       </c>
@@ -26955,7 +26955,7 @@
         <v>2.6084510750000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>102</v>
       </c>
@@ -27032,7 +27032,7 @@
         <v>0.30420458224999997</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>105</v>
       </c>
@@ -27109,7 +27109,7 @@
         <v>2.9138067500000002E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>104</v>
       </c>
@@ -27186,7 +27186,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>45</v>
       </c>
@@ -27263,7 +27263,7 @@
         <v>2.8718389999999997E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>40</v>
       </c>
@@ -27340,7 +27340,7 @@
         <v>2.5460810000000004E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>73</v>
       </c>
@@ -27417,7 +27417,7 @@
         <v>1.99359785E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>25</v>
       </c>
@@ -27494,7 +27494,7 @@
         <v>1.5925334750000002E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>59</v>
       </c>
@@ -27571,7 +27571,7 @@
         <v>4.8725369749999997E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>96</v>
       </c>
@@ -27648,7 +27648,7 @@
         <v>2.2670228000000001E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>41</v>
       </c>
@@ -27725,7 +27725,7 @@
         <v>2.3833565000000001E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>98</v>
       </c>
@@ -27802,7 +27802,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>24</v>
       </c>
@@ -27879,7 +27879,7 @@
         <v>9.0536371249999997E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>60</v>
       </c>
@@ -27956,7 +27956,7 @@
         <v>2.6609939750000002E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>21</v>
       </c>
@@ -28033,7 +28033,7 @@
         <v>1.0046580000000001E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>86</v>
       </c>
@@ -28110,7 +28110,7 @@
         <v>6.1603891499999994E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>54</v>
       </c>
@@ -28187,7 +28187,7 @@
         <v>7.1153649999999985E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>22</v>
       </c>
@@ -28264,7 +28264,7 @@
         <v>8.1978367499999979E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>103</v>
       </c>
@@ -28341,7 +28341,7 @@
         <v>5.2965920499999992E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>69</v>
       </c>
@@ -28418,7 +28418,7 @@
         <v>2.9193974249999997E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>13</v>
       </c>
@@ -28495,7 +28495,7 @@
         <v>3.3133198500000002E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>51</v>
       </c>
@@ -28572,7 +28572,7 @@
         <v>1.6808802500000001E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>101</v>
       </c>
@@ -28649,7 +28649,7 @@
         <v>6.9470367499999991E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>37</v>
       </c>
@@ -28739,9 +28739,9 @@
       <selection activeCell="B2" sqref="B2:Y101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -28818,7 +28818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -28895,7 +28895,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>6</v>
       </c>
@@ -28972,7 +28972,7 @@
         <v>1.4801309750000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>7</v>
       </c>
@@ -29049,7 +29049,7 @@
         <v>4.0269919500000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>8</v>
       </c>
@@ -29126,7 +29126,7 @@
         <v>5.8193817499999998E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>9</v>
       </c>
@@ -29203,7 +29203,7 @@
         <v>1.252490425E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>10</v>
       </c>
@@ -29280,7 +29280,7 @@
         <v>3.0990477907499998</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>11</v>
       </c>
@@ -29357,7 +29357,7 @@
         <v>0.46782415025000001</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>12</v>
       </c>
@@ -29434,7 +29434,7 @@
         <v>2.141625E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>14</v>
       </c>
@@ -29511,7 +29511,7 @@
         <v>0.11290278625</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>15</v>
       </c>
@@ -29588,7 +29588,7 @@
         <v>2.5139917749999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>16</v>
       </c>
@@ -29665,7 +29665,7 @@
         <v>2.1315360250000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>17</v>
       </c>
@@ -29742,7 +29742,7 @@
         <v>2.882028E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>18</v>
       </c>
@@ -29819,7 +29819,7 @@
         <v>1.15750095E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>19</v>
       </c>
@@ -29896,7 +29896,7 @@
         <v>4.6512717500000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>20</v>
       </c>
@@ -29973,7 +29973,7 @@
         <v>4.5868021000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>23</v>
       </c>
@@ -30050,7 +30050,7 @@
         <v>8.69139375E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>26</v>
       </c>
@@ -30127,7 +30127,7 @@
         <v>2.2486008500000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>27</v>
       </c>
@@ -30204,7 +30204,7 @@
         <v>3.0688867500000003E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>28</v>
       </c>
@@ -30281,7 +30281,7 @@
         <v>3.8624971500000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>29</v>
       </c>
@@ -30358,7 +30358,7 @@
         <v>2.473310225E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>30</v>
       </c>
@@ -30435,7 +30435,7 @@
         <v>0.13810974874999998</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>31</v>
       </c>
@@ -30512,7 +30512,7 @@
         <v>8.6893279999999996E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>32</v>
       </c>
@@ -30589,7 +30589,7 @@
         <v>7.0109401749999994E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>33</v>
       </c>
@@ -30666,7 +30666,7 @@
         <v>2.9920162249999997E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>34</v>
       </c>
@@ -30743,7 +30743,7 @@
         <v>9.5114074999999999E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>35</v>
       </c>
@@ -30820,7 +30820,7 @@
         <v>1.9266552499999996E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>36</v>
       </c>
@@ -30897,7 +30897,7 @@
         <v>9.8740194999999992E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>38</v>
       </c>
@@ -30974,7 +30974,7 @@
         <v>6.5118177499999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>39</v>
       </c>
@@ -31051,7 +31051,7 @@
         <v>0.11017681900000001</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>42</v>
       </c>
@@ -31128,7 +31128,7 @@
         <v>3.0995562500000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>43</v>
       </c>
@@ -31205,7 +31205,7 @@
         <v>4.7175934999999997E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>44</v>
       </c>
@@ -31282,7 +31282,7 @@
         <v>1.4404450749999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>46</v>
       </c>
@@ -31359,7 +31359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>47</v>
       </c>
@@ -31436,7 +31436,7 @@
         <v>0.37348346724999998</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>48</v>
       </c>
@@ -31513,7 +31513,7 @@
         <v>1.35344825E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>49</v>
       </c>
@@ -31590,7 +31590,7 @@
         <v>3.4914863500000004E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>50</v>
       </c>
@@ -31667,7 +31667,7 @@
         <v>3.401598E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>52</v>
       </c>
@@ -31744,7 +31744,7 @@
         <v>3.5148712499999996E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>53</v>
       </c>
@@ -31821,7 +31821,7 @@
         <v>0.15614503099999999</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>55</v>
       </c>
@@ -31898,7 +31898,7 @@
         <v>2.8145774500000002E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>56</v>
       </c>
@@ -31975,7 +31975,7 @@
         <v>1.0698026250000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>57</v>
       </c>
@@ -32052,7 +32052,7 @@
         <v>3.9454727499999998E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>58</v>
       </c>
@@ -32129,7 +32129,7 @@
         <v>1.3588213750000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>61</v>
       </c>
@@ -32206,7 +32206,7 @@
         <v>0.52513783275000003</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>62</v>
       </c>
@@ -32283,7 +32283,7 @@
         <v>5.3524485000000007E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>63</v>
       </c>
@@ -32360,7 +32360,7 @@
         <v>1.0948432499999997E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>64</v>
       </c>
@@ -32437,7 +32437,7 @@
         <v>6.5222228999999993E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>65</v>
       </c>
@@ -32514,7 +32514,7 @@
         <v>0.13746475600000002</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>66</v>
       </c>
@@ -32591,7 +32591,7 @@
         <v>5.6606013500000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>67</v>
       </c>
@@ -32668,7 +32668,7 @@
         <v>3.2664443000000008E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>68</v>
       </c>
@@ -32745,7 +32745,7 @@
         <v>0.10995635999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>70</v>
       </c>
@@ -32822,7 +32822,7 @@
         <v>6.05864505E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>71</v>
       </c>
@@ -32899,7 +32899,7 @@
         <v>2.039187E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>72</v>
       </c>
@@ -32976,7 +32976,7 @@
         <v>1.9419785000000002E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>74</v>
       </c>
@@ -33053,7 +33053,7 @@
         <v>9.1757045000000013E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>75</v>
       </c>
@@ -33130,7 +33130,7 @@
         <v>0.12808690250000002</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>76</v>
       </c>
@@ -33207,7 +33207,7 @@
         <v>6.1710039999999999E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>77</v>
       </c>
@@ -33284,7 +33284,7 @@
         <v>8.3890955000000007E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>78</v>
       </c>
@@ -33361,7 +33361,7 @@
         <v>1.6433475000000001E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>79</v>
       </c>
@@ -33438,7 +33438,7 @@
         <v>0.12079502125</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>81</v>
       </c>
@@ -33515,7 +33515,7 @@
         <v>3.8269300000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>82</v>
       </c>
@@ -33592,7 +33592,7 @@
         <v>6.3668862500000003E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>83</v>
       </c>
@@ -33669,7 +33669,7 @@
         <v>5.3779920499999995E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>84</v>
       </c>
@@ -33746,7 +33746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>85</v>
       </c>
@@ -33823,7 +33823,7 @@
         <v>1.196059625E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>87</v>
       </c>
@@ -33900,7 +33900,7 @@
         <v>3.9012402499999997E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>88</v>
       </c>
@@ -33977,7 +33977,7 @@
         <v>7.8814410000000012E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>89</v>
       </c>
@@ -34054,7 +34054,7 @@
         <v>6.6617452499999992E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>90</v>
       </c>
@@ -34131,7 +34131,7 @@
         <v>5.2240176500000006E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>91</v>
       </c>
@@ -34208,7 +34208,7 @@
         <v>3.9247199000000003E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>92</v>
       </c>
@@ -34285,7 +34285,7 @@
         <v>4.0665500000000002E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>93</v>
       </c>
@@ -34362,7 +34362,7 @@
         <v>3.7304495E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>94</v>
       </c>
@@ -34439,7 +34439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>95</v>
       </c>
@@ -34516,7 +34516,7 @@
         <v>9.2182512500000018E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>97</v>
       </c>
@@ -34593,7 +34593,7 @@
         <v>1.0080379999999999E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>99</v>
       </c>
@@ -34670,7 +34670,7 @@
         <v>7.9236725000000008E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>100</v>
       </c>
@@ -34747,7 +34747,7 @@
         <v>1.924502375E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>102</v>
       </c>
@@ -34824,7 +34824,7 @@
         <v>7.4101062999999995E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>105</v>
       </c>
@@ -34901,7 +34901,7 @@
         <v>2.2767770000000002E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>104</v>
       </c>
@@ -34978,7 +34978,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>45</v>
       </c>
@@ -35055,7 +35055,7 @@
         <v>4.0530537500000005E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>40</v>
       </c>
@@ -35132,7 +35132,7 @@
         <v>1.9982748500000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>73</v>
       </c>
@@ -35209,7 +35209,7 @@
         <v>1.583386325E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>25</v>
       </c>
@@ -35286,7 +35286,7 @@
         <v>1.8348103000000001E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>59</v>
       </c>
@@ -35363,7 +35363,7 @@
         <v>4.2240348750000004E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>96</v>
       </c>
@@ -35440,7 +35440,7 @@
         <v>3.1793158500000002E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>41</v>
       </c>
@@ -35517,7 +35517,7 @@
         <v>2.0978289250000001E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>98</v>
       </c>
@@ -35594,7 +35594,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>24</v>
       </c>
@@ -35671,7 +35671,7 @@
         <v>8.699636275E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>60</v>
       </c>
@@ -35748,7 +35748,7 @@
         <v>2.3670083000000001E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>21</v>
       </c>
@@ -35825,7 +35825,7 @@
         <v>5.0197247500000002E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>86</v>
       </c>
@@ -35902,7 +35902,7 @@
         <v>5.7632582749999994E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>54</v>
       </c>
@@ -35979,7 +35979,7 @@
         <v>1.5554618749999999E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>22</v>
       </c>
@@ -36056,7 +36056,7 @@
         <v>1.0366732500000002E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>103</v>
       </c>
@@ -36133,7 +36133,7 @@
         <v>5.0883381999999998E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>69</v>
       </c>
@@ -36210,7 +36210,7 @@
         <v>2.3237490249999999E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>13</v>
       </c>
@@ -36287,7 +36287,7 @@
         <v>3.1950823499999996E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>51</v>
       </c>
@@ -36364,7 +36364,7 @@
         <v>9.9328874999999994E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>101</v>
       </c>
@@ -36441,7 +36441,7 @@
         <v>6.1822141749999997E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>37</v>
       </c>
@@ -36531,9 +36531,9 @@
       <selection activeCell="B2" sqref="B2:Y101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -36610,7 +36610,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -36687,7 +36687,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6</v>
       </c>
@@ -36764,7 +36764,7 @@
         <v>9.6940877500000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7</v>
       </c>
@@ -36841,7 +36841,7 @@
         <v>5.2982300750000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8</v>
       </c>
@@ -36918,7 +36918,7 @@
         <v>6.2744937499999995E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9</v>
       </c>
@@ -36995,7 +36995,7 @@
         <v>5.695461575E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -37072,7 +37072,7 @@
         <v>3.3756851194999999</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>11</v>
       </c>
@@ -37149,7 +37149,7 @@
         <v>0.27663668050000001</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>12</v>
       </c>
@@ -37226,7 +37226,7 @@
         <v>1.4152275E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>14</v>
       </c>
@@ -37303,7 +37303,7 @@
         <v>0.16305671699999999</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>15</v>
       </c>
@@ -37380,7 +37380,7 @@
         <v>2.1204593000000004E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>16</v>
       </c>
@@ -37457,7 +37457,7 @@
         <v>2.42827015E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>17</v>
       </c>
@@ -37534,7 +37534,7 @@
         <v>2.7037917500000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>18</v>
       </c>
@@ -37611,7 +37611,7 @@
         <v>9.2654487500000004E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>19</v>
       </c>
@@ -37688,7 +37688,7 @@
         <v>4.7026280499999996E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>20</v>
       </c>
@@ -37765,7 +37765,7 @@
         <v>0.15713488749999999</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>23</v>
       </c>
@@ -37842,7 +37842,7 @@
         <v>7.1817322500000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>26</v>
       </c>
@@ -37919,7 +37919,7 @@
         <v>2.684825825E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>27</v>
       </c>
@@ -37996,7 +37996,7 @@
         <v>5.3615307500000002E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>28</v>
       </c>
@@ -38073,7 +38073,7 @@
         <v>4.1254650249999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>29</v>
       </c>
@@ -38150,7 +38150,7 @@
         <v>1.68589265E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>30</v>
       </c>
@@ -38227,7 +38227,7 @@
         <v>0.11450054525</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>31</v>
       </c>
@@ -38304,7 +38304,7 @@
         <v>8.7342475000000003E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>32</v>
       </c>
@@ -38381,7 +38381,7 @@
         <v>0.1253247985</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>33</v>
       </c>
@@ -38458,7 +38458,7 @@
         <v>0.1426113775</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>34</v>
       </c>
@@ -38535,7 +38535,7 @@
         <v>1.1437135000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>35</v>
       </c>
@@ -38612,7 +38612,7 @@
         <v>4.3729912500000004E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>36</v>
       </c>
@@ -38689,7 +38689,7 @@
         <v>9.5220022499999998E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>38</v>
       </c>
@@ -38766,7 +38766,7 @@
         <v>5.4809690750000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>39</v>
       </c>
@@ -38843,7 +38843,7 @@
         <v>9.5870735000000012E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>42</v>
       </c>
@@ -38920,7 +38920,7 @@
         <v>3.0764305000000004E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>43</v>
       </c>
@@ -38997,7 +38997,7 @@
         <v>5.9005812500000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>44</v>
       </c>
@@ -39074,7 +39074,7 @@
         <v>2.1115779249999998E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>46</v>
       </c>
@@ -39151,7 +39151,7 @@
         <v>2.2967893249999996E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>47</v>
       </c>
@@ -39228,7 +39228,7 @@
         <v>0.18538370874999999</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>48</v>
       </c>
@@ -39305,7 +39305,7 @@
         <v>1.3457942500000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>49</v>
       </c>
@@ -39382,7 +39382,7 @@
         <v>5.0267884249999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>50</v>
       </c>
@@ -39459,7 +39459,7 @@
         <v>5.8632595000000006E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>52</v>
       </c>
@@ -39536,7 +39536,7 @@
         <v>3.2386765000000004E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>53</v>
       </c>
@@ -39613,7 +39613,7 @@
         <v>3.3879126499999995E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>55</v>
       </c>
@@ -39690,7 +39690,7 @@
         <v>1.8043518749999998E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>56</v>
       </c>
@@ -39767,7 +39767,7 @@
         <v>2.818391E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>57</v>
       </c>
@@ -39844,7 +39844,7 @@
         <v>3.2789335000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>58</v>
       </c>
@@ -39921,7 +39921,7 @@
         <v>1.4137209500000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>61</v>
       </c>
@@ -39998,7 +39998,7 @@
         <v>0.54402384949999993</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>62</v>
       </c>
@@ -40075,7 +40075,7 @@
         <v>4.7030345000000006E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>63</v>
       </c>
@@ -40152,7 +40152,7 @@
         <v>9.3197725000000004E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>64</v>
       </c>
@@ -40229,7 +40229,7 @@
         <v>0.112155386</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>65</v>
       </c>
@@ -40306,7 +40306,7 @@
         <v>9.8300619500000005E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>66</v>
       </c>
@@ -40383,7 +40383,7 @@
         <v>3.6550888999999996E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>67</v>
       </c>
@@ -40460,7 +40460,7 @@
         <v>2.1040562249999999E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>68</v>
       </c>
@@ -40537,7 +40537,7 @@
         <v>0.10648606125</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>70</v>
       </c>
@@ -40614,7 +40614,7 @@
         <v>5.3424030500000004E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>71</v>
       </c>
@@ -40691,7 +40691,7 @@
         <v>3.1089660000000003E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>72</v>
       </c>
@@ -40768,7 +40768,7 @@
         <v>4.19213925E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>74</v>
       </c>
@@ -40845,7 +40845,7 @@
         <v>7.71591225E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>75</v>
       </c>
@@ -40922,7 +40922,7 @@
         <v>0.11443150925000001</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>76</v>
       </c>
@@ -40999,7 +40999,7 @@
         <v>5.8633667499999997E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>77</v>
       </c>
@@ -41076,7 +41076,7 @@
         <v>6.8172362499999998E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>78</v>
       </c>
@@ -41153,7 +41153,7 @@
         <v>1.7796863250000003E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>79</v>
       </c>
@@ -41230,7 +41230,7 @@
         <v>0.10985318549999999</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>81</v>
       </c>
@@ -41307,7 +41307,7 @@
         <v>3.0239202500000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>82</v>
       </c>
@@ -41384,7 +41384,7 @@
         <v>6.5428464999999995E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>83</v>
       </c>
@@ -41461,7 +41461,7 @@
         <v>3.4900992499999998E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>84</v>
       </c>
@@ -41538,7 +41538,7 @@
         <v>7.4424337500000005E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>85</v>
       </c>
@@ -41615,7 +41615,7 @@
         <v>1.974932225E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>87</v>
       </c>
@@ -41692,7 +41692,7 @@
         <v>6.0658302500000002E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>88</v>
       </c>
@@ -41769,7 +41769,7 @@
         <v>7.4770997499999988E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>89</v>
       </c>
@@ -41846,7 +41846,7 @@
         <v>6.5894527499999996E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>90</v>
       </c>
@@ -41923,7 +41923,7 @@
         <v>3.3974065000000001E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>91</v>
       </c>
@@ -42000,7 +42000,7 @@
         <v>3.7938217000000003E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>92</v>
       </c>
@@ -42077,7 +42077,7 @@
         <v>5.2194799999999994E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>93</v>
       </c>
@@ -42154,7 +42154,7 @@
         <v>3.3597685249999995E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>94</v>
       </c>
@@ -42231,7 +42231,7 @@
         <v>1.3981056000000002E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>95</v>
       </c>
@@ -42308,7 +42308,7 @@
         <v>1.3620943E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>97</v>
       </c>
@@ -42385,7 +42385,7 @@
         <v>6.768510000000001E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>99</v>
       </c>
@@ -42462,7 +42462,7 @@
         <v>3.9224831499999994E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>100</v>
       </c>
@@ -42539,7 +42539,7 @@
         <v>1.7580183000000003E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>102</v>
       </c>
@@ -42616,7 +42616,7 @@
         <v>4.9673695750000003E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>105</v>
       </c>
@@ -42693,7 +42693,7 @@
         <v>2.28377675E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>104</v>
       </c>
@@ -42770,7 +42770,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>45</v>
       </c>
@@ -42847,7 +42847,7 @@
         <v>2.9046114999999998E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>40</v>
       </c>
@@ -42924,7 +42924,7 @@
         <v>1.9208248250000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>73</v>
       </c>
@@ -43001,7 +43001,7 @@
         <v>1.5386212749999999E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>25</v>
       </c>
@@ -43078,7 +43078,7 @@
         <v>1.37666725E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>59</v>
       </c>
@@ -43155,7 +43155,7 @@
         <v>3.7937950999999998E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>96</v>
       </c>
@@ -43232,7 +43232,7 @@
         <v>2.217219925E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>41</v>
       </c>
@@ -43309,7 +43309,7 @@
         <v>2.08543315E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>98</v>
       </c>
@@ -43386,7 +43386,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>24</v>
       </c>
@@ -43463,7 +43463,7 @@
         <v>8.3888582500000017E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>60</v>
       </c>
@@ -43540,7 +43540,7 @@
         <v>2.4741058250000003E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>21</v>
       </c>
@@ -43617,7 +43617,7 @@
         <v>1.4816437500000002E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>86</v>
       </c>
@@ -43694,7 +43694,7 @@
         <v>4.8025705500000009E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>54</v>
       </c>
@@ -43771,7 +43771,7 @@
         <v>3.7874905000000003E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>22</v>
       </c>
@@ -43848,7 +43848,7 @@
         <v>1.1390539E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>103</v>
       </c>
@@ -43925,7 +43925,7 @@
         <v>7.2343908250000005E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>69</v>
       </c>
@@ -44002,7 +44002,7 @@
         <v>2.60446545E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>13</v>
       </c>
@@ -44079,7 +44079,7 @@
         <v>2.9062900999999995E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>51</v>
       </c>
@@ -44156,7 +44156,7 @@
         <v>3.93808825E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>101</v>
       </c>
@@ -44233,7 +44233,7 @@
         <v>6.9112708999999994E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>37</v>
       </c>
@@ -44323,9 +44323,9 @@
       <selection activeCell="B2" sqref="B2:Y101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -44402,7 +44402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -44479,7 +44479,7 @@
         <v>4.9798386443776916</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>6</v>
       </c>
@@ -44556,7 +44556,7 @@
         <v>8.9718279126606935E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>7</v>
       </c>
@@ -44633,7 +44633,7 @@
         <v>3.6457907823548866E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>8</v>
       </c>
@@ -44710,7 +44710,7 @@
         <v>3.7314908939889376E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>9</v>
       </c>
@@ -44787,7 +44787,7 @@
         <v>0.25035689647717152</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>10</v>
       </c>
@@ -44864,7 +44864,7 @@
         <v>1.5957746573691658</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>11</v>
       </c>
@@ -44941,7 +44941,7 @@
         <v>0.29638741937695612</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>12</v>
       </c>
@@ -45018,7 +45018,7 @@
         <v>9.4288294617464669E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>14</v>
       </c>
@@ -45095,7 +45095,7 @@
         <v>0.86315925220063994</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>15</v>
       </c>
@@ -45172,7 +45172,7 @@
         <v>1.1464509923355822E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>16</v>
       </c>
@@ -45249,7 +45249,7 @@
         <v>1.3090521636855187E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>17</v>
       </c>
@@ -45326,7 +45326,7 @@
         <v>2.6014421721666237E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>18</v>
       </c>
@@ -45403,7 +45403,7 @@
         <v>6.9605692602960137E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>19</v>
       </c>
@@ -45480,7 +45480,7 @@
         <v>2.6071687673902111E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>20</v>
       </c>
@@ -45557,7 +45557,7 @@
         <v>0.50484862575992662</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>23</v>
       </c>
@@ -45634,7 +45634,7 @@
         <v>3.0731480383188195E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>26</v>
       </c>
@@ -45711,7 +45711,7 @@
         <v>1.3092960769504237E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>27</v>
       </c>
@@ -45788,7 +45788,7 @@
         <v>2.5401555702710679E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>28</v>
       </c>
@@ -45865,7 +45865,7 @@
         <v>3.5779543843706289E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>29</v>
       </c>
@@ -45942,7 +45942,7 @@
         <v>1.6001540128385804E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>30</v>
       </c>
@@ -46019,7 +46019,7 @@
         <v>7.8652034199330367E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>31</v>
       </c>
@@ -46096,7 +46096,7 @@
         <v>9.7096264749646083E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>32</v>
       </c>
@@ -46173,7 +46173,7 @@
         <v>6.0610592900591405E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>33</v>
       </c>
@@ -46250,7 +46250,7 @@
         <v>0.23938661599894764</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>34</v>
       </c>
@@ -46327,7 +46327,7 @@
         <v>7.5914776115945171E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>35</v>
       </c>
@@ -46404,7 +46404,7 @@
         <v>5.1726887428275381E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>36</v>
       </c>
@@ -46481,7 +46481,7 @@
         <v>4.202406283409176E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>38</v>
       </c>
@@ -46558,7 +46558,7 @@
         <v>4.2541298049266124E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>39</v>
       </c>
@@ -46635,7 +46635,7 @@
         <v>6.8638445995315572E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>42</v>
       </c>
@@ -46712,7 +46712,7 @@
         <v>2.1753688353171085E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>43</v>
       </c>
@@ -46789,7 +46789,7 @@
         <v>6.2069528382310023E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>44</v>
       </c>
@@ -46866,7 +46866,7 @@
         <v>4.9535940368630189E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>46</v>
       </c>
@@ -46943,7 +46943,7 @@
         <v>5.1745228184220109E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>47</v>
       </c>
@@ -47020,7 +47020,7 @@
         <v>0.14120943995873361</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>48</v>
       </c>
@@ -47097,7 +47097,7 @@
         <v>8.0999248280510725E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>49</v>
       </c>
@@ -47174,7 +47174,7 @@
         <v>1.3054909967174179E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>50</v>
       </c>
@@ -47251,7 +47251,7 @@
         <v>2.8013014533514362E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>52</v>
       </c>
@@ -47328,7 +47328,7 @@
         <v>5.8801582455171369E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>53</v>
       </c>
@@ -47405,7 +47405,7 @@
         <v>0.11455537734517104</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>55</v>
       </c>
@@ -47482,7 +47482,7 @@
         <v>1.7412812109669485E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>56</v>
       </c>
@@ -47559,7 +47559,7 @@
         <v>5.1307734188938371E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>57</v>
       </c>
@@ -47636,7 +47636,7 @@
         <v>4.7173713018704329E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>58</v>
       </c>
@@ -47713,7 +47713,7 @@
         <v>6.329223647977565E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>61</v>
       </c>
@@ -47790,7 +47790,7 @@
         <v>0.36299160005331305</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>62</v>
       </c>
@@ -47867,7 +47867,7 @@
         <v>1.0540005260214018E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>63</v>
       </c>
@@ -47944,7 +47944,7 @@
         <v>6.9248658861948884E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>64</v>
       </c>
@@ -48021,7 +48021,7 @@
         <v>0.12473582814552976</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>65</v>
       </c>
@@ -48098,7 +48098,7 @@
         <v>0.24660151184282636</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>66</v>
       </c>
@@ -48175,7 +48175,7 @@
         <v>0.11210504753519317</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>67</v>
       </c>
@@ -48252,7 +48252,7 @@
         <v>1.520054069845578E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>68</v>
       </c>
@@ -48329,7 +48329,7 @@
         <v>6.4237222223673049E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>70</v>
       </c>
@@ -48406,7 +48406,7 @@
         <v>4.0398705475176724E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>71</v>
       </c>
@@ -48483,7 +48483,7 @@
         <v>5.6815542646417834E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>72</v>
       </c>
@@ -48560,7 +48560,7 @@
         <v>5.2400460236403214E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>74</v>
       </c>
@@ -48637,7 +48637,7 @@
         <v>4.983772258075698E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>75</v>
       </c>
@@ -48714,7 +48714,7 @@
         <v>6.2983660071595809E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>76</v>
       </c>
@@ -48791,7 +48791,7 @@
         <v>6.2660925832969333E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>77</v>
       </c>
@@ -48868,7 +48868,7 @@
         <v>1.3832332779854448E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>78</v>
       </c>
@@ -48945,7 +48945,7 @@
         <v>2.9474612517307569E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>79</v>
       </c>
@@ -49022,7 +49022,7 @@
         <v>7.015240067097718E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>81</v>
       </c>
@@ -49099,7 +49099,7 @@
         <v>1.1523444230028082E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>82</v>
       </c>
@@ -49176,7 +49176,7 @@
         <v>4.2461408386045389E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>83</v>
       </c>
@@ -49253,7 +49253,7 @@
         <v>4.5214129038603133E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>84</v>
       </c>
@@ -49330,7 +49330,7 @@
         <v>6.535339194259423E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>85</v>
       </c>
@@ -49407,7 +49407,7 @@
         <v>7.487733528208894E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>87</v>
       </c>
@@ -49484,7 +49484,7 @@
         <v>2.1456802721610661E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>88</v>
       </c>
@@ -49561,7 +49561,7 @@
         <v>1.2475964465437014E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>89</v>
       </c>
@@ -49638,7 +49638,7 @@
         <v>6.7190774531657952E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>90</v>
       </c>
@@ -49715,7 +49715,7 @@
         <v>1.2321478123444972E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>91</v>
       </c>
@@ -49792,7 +49792,7 @@
         <v>1.8891203657514923E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>92</v>
       </c>
@@ -49869,7 +49869,7 @@
         <v>8.9182868761375023E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>93</v>
       </c>
@@ -49946,7 +49946,7 @@
         <v>2.6128400453804903E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>94</v>
       </c>
@@ -50023,7 +50023,7 @@
         <v>2.3630041606499622E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>95</v>
       </c>
@@ -50100,7 +50100,7 @@
         <v>6.9634572450963231E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>97</v>
       </c>
@@ -50177,7 +50177,7 @@
         <v>6.1522798412818333E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>99</v>
       </c>
@@ -50254,7 +50254,7 @@
         <v>0.1356410180815264</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>100</v>
       </c>
@@ -50331,7 +50331,7 @@
         <v>1.3363491242348376E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>102</v>
       </c>
@@ -50408,7 +50408,7 @@
         <v>0.1558486302366289</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>105</v>
       </c>
@@ -50485,7 +50485,7 @@
         <v>1.492787476779513E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>104</v>
       </c>
@@ -50562,7 +50562,7 @@
         <v>6.3236046277811958E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>45</v>
       </c>
@@ -50639,7 +50639,7 @@
         <v>1.1350233994151576E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>40</v>
       </c>
@@ -50716,7 +50716,7 @@
         <v>1.0062755996441108E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>73</v>
       </c>
@@ -50793,7 +50793,7 @@
         <v>7.8792028688716518E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>25</v>
       </c>
@@ -50870,7 +50870,7 @@
         <v>6.2940950327540438E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>59</v>
       </c>
@@ -50947,7 +50947,7 @@
         <v>1.9257498352590618E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>96</v>
       </c>
@@ -51024,7 +51024,7 @@
         <v>8.9598474183534282E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>41</v>
       </c>
@@ -51101,7 +51101,7 @@
         <v>9.4196276206577455E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>98</v>
       </c>
@@ -51178,7 +51178,7 @@
         <v>2.529441851112478E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>24</v>
       </c>
@@ -51255,7 +51255,7 @@
         <v>3.5782263513688524E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>60</v>
       </c>
@@ -51332,7 +51332,7 @@
         <v>1.0516921134254925E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>21</v>
       </c>
@@ -51409,7 +51409,7 @@
         <v>3.9706624863358752E-4</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>86</v>
       </c>
@@ -51486,7 +51486,7 @@
         <v>2.4347415836170661E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>54</v>
       </c>
@@ -51563,7 +51563,7 @@
         <v>2.8121721901470218E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>22</v>
       </c>
@@ -51640,7 +51640,7 @@
         <v>3.2399924006309222E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>103</v>
       </c>
@@ -51717,7 +51717,7 @@
         <v>2.0933471249280682E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>69</v>
       </c>
@@ -51794,7 +51794,7 @@
         <v>1.1538196916914066E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>13</v>
       </c>
@@ -51871,7 +51871,7 @@
         <v>1.309507796048706E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>51</v>
       </c>
@@ -51948,7 +51948,7 @@
         <v>6.6432638297787578E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>101</v>
       </c>
@@ -52025,7 +52025,7 @@
         <v>2.745644608854127E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>37</v>
       </c>
@@ -52115,9 +52115,9 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -52194,7 +52194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -52271,7 +52271,7 @@
         <v>4.9798386443776916</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>6</v>
       </c>
@@ -52348,7 +52348,7 @@
         <v>7.5829359084072763E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>7</v>
       </c>
@@ -52425,7 +52425,7 @@
         <v>2.0630891709108402E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>8</v>
       </c>
@@ -52502,7 +52502,7 @@
         <v>2.9813577029428073E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>9</v>
       </c>
@@ -52579,7 +52579,7 @@
         <v>6.4166987780718476E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>10</v>
       </c>
@@ -52656,7 +52656,7 @@
         <v>1.587689276913377</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>11</v>
       </c>
@@ -52733,7 +52733,7 @@
         <v>0.23967342131670788</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>12</v>
       </c>
@@ -52810,7 +52810,7 @@
         <v>1.0971870320356438E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>14</v>
       </c>
@@ -52887,7 +52887,7 @@
         <v>5.7841813087815178E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>15</v>
       </c>
@@ -52964,7 +52964,7 @@
         <v>1.2879561894235777E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>16</v>
       </c>
@@ -53041,7 +53041,7 @@
         <v>1.0920182968291848E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>17</v>
       </c>
@@ -53118,7 +53118,7 @@
         <v>1.4765067402386608E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>18</v>
       </c>
@@ -53195,7 +53195,7 @@
         <v>5.9300532628678588E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>19</v>
       </c>
@@ -53272,7 +53272,7 @@
         <v>2.3829171991239052E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>20</v>
       </c>
@@ -53349,7 +53349,7 @@
         <v>2.3498884177359982E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>23</v>
       </c>
@@ -53426,7 +53426,7 @@
         <v>4.4527330941764517E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>26</v>
       </c>
@@ -53503,7 +53503,7 @@
         <v>1.1519923856157474E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>27</v>
       </c>
@@ -53580,7 +53580,7 @@
         <v>1.5722373174043131E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>28</v>
       </c>
@@ -53657,7 +53657,7 @@
         <v>1.978815985176972E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>29</v>
       </c>
@@ -53734,7 +53734,7 @@
         <v>1.2671144131541048E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>30</v>
       </c>
@@ -53811,7 +53811,7 @@
         <v>7.0755723026300552E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>31</v>
       </c>
@@ -53888,7 +53888,7 @@
         <v>4.4516747790599269E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>32</v>
       </c>
@@ -53965,7 +53965,7 @@
         <v>3.5918111912158782E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>33</v>
       </c>
@@ -54042,7 +54042,7 @@
         <v>1.5328553793078809E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>34</v>
       </c>
@@ -54119,7 +54119,7 @@
         <v>4.8728385993843744E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>35</v>
       </c>
@@ -54196,7 +54196,7 @@
         <v>9.8705476238995652E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>36</v>
       </c>
@@ -54273,7 +54273,7 @@
         <v>5.0586102373044155E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>38</v>
       </c>
@@ -54350,7 +54350,7 @@
         <v>3.3361031881302856E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>39</v>
       </c>
@@ -54427,7 +54427,7 @@
         <v>5.644525864132998E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>42</v>
       </c>
@@ -54504,7 +54504,7 @@
         <v>1.5879497683137943E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>43</v>
       </c>
@@ -54581,7 +54581,7 @@
         <v>2.4168948394866722E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>44</v>
       </c>
@@ -54658,7 +54658,7 @@
         <v>7.3796190119633917E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>46</v>
       </c>
@@ -54735,7 +54735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>47</v>
       </c>
@@ -54812,7 +54812,7 @@
         <v>0.1913412557970742</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>48</v>
       </c>
@@ -54889,7 +54889,7 @@
         <v>6.9339210572875076E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>49</v>
       </c>
@@ -54966,7 +54966,7 @@
         <v>1.7887415143871883E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>50</v>
       </c>
@@ -55043,7 +55043,7 @@
         <v>1.7426903467219429E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>52</v>
       </c>
@@ -55120,7 +55120,7 @@
         <v>1.8007219540185199E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>53</v>
       </c>
@@ -55197,7 +55197,7 @@
         <v>7.9995472190511202E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>55</v>
       </c>
@@ -55274,7 +55274,7 @@
         <v>1.4419507984824375E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>56</v>
       </c>
@@ -55351,7 +55351,7 @@
         <v>5.4807614170907168E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>57</v>
       </c>
@@ -55428,7 +55428,7 @@
         <v>2.0213256459697703E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>58</v>
       </c>
@@ -55505,7 +55505,7 @@
         <v>6.9614483931726718E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>61</v>
       </c>
@@ -55582,7 +55582,7 @@
         <v>0.26903609181093924</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>62</v>
       </c>
@@ -55659,7 +55659,7 @@
         <v>2.7421407033624621E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>63</v>
       </c>
@@ -55736,7 +55736,7 @@
         <v>5.6090483441861112E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>64</v>
       </c>
@@ -55813,7 +55813,7 @@
         <v>3.341433904593899E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>65</v>
       </c>
@@ -55890,7 +55890,7 @@
         <v>7.0425283439044625E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>66</v>
       </c>
@@ -55967,7 +55967,7 @@
         <v>2.9000120911660338E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>67</v>
       </c>
@@ -56044,7 +56044,7 @@
         <v>1.6734490523909393E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>68</v>
       </c>
@@ -56121,7 +56121,7 @@
         <v>5.6332314145493612E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>70</v>
       </c>
@@ -56198,7 +56198,7 @@
         <v>3.103935927422842E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>71</v>
       </c>
@@ -56275,7 +56275,7 @@
         <v>1.0447064879685604E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>72</v>
       </c>
@@ -56352,7 +56352,7 @@
         <v>9.9490509621994096E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>74</v>
       </c>
@@ -56429,7 +56429,7 @@
         <v>4.7008528510785498E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>75</v>
       </c>
@@ -56506,7 +56506,7 @@
         <v>6.5620866583371906E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>76</v>
       </c>
@@ -56583,7 +56583,7 @@
         <v>3.1614991249355445E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>77</v>
       </c>
@@ -56660,7 +56660,7 @@
         <v>4.2978611069204795E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>78</v>
       </c>
@@ -56737,7 +56737,7 @@
         <v>8.4191189686718963E-5</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>79</v>
       </c>
@@ -56814,7 +56814,7 @@
         <v>6.1885125010200201E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>81</v>
       </c>
@@ -56891,7 +56891,7 @@
         <v>1.9605943937468819E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>82</v>
       </c>
@@ -56968,7 +56968,7 @@
         <v>3.2618525782739968E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>83</v>
       </c>
@@ -57045,7 +57045,7 @@
         <v>2.7552270521920441E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>84</v>
       </c>
@@ -57122,7 +57122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>85</v>
       </c>
@@ -57199,7 +57199,7 @@
         <v>6.1275952143415155E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>87</v>
       </c>
@@ -57276,7 +57276,7 @@
         <v>1.9986646640543942E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>88</v>
       </c>
@@ -57353,7 +57353,7 @@
         <v>4.0377819921573735E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>89</v>
       </c>
@@ -57430,7 +57430,7 @@
         <v>3.4129133247067281E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>90</v>
       </c>
@@ -57507,7 +57507,7 @@
         <v>2.676343627248149E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>91</v>
       </c>
@@ -57584,7 +57584,7 @@
         <v>2.0106936455505646E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>92</v>
       </c>
@@ -57661,7 +57661,7 @@
         <v>2.0833553610573964E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>93</v>
       </c>
@@ -57738,7 +57738,7 @@
         <v>1.911165967461087E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>94</v>
       </c>
@@ -57815,7 +57815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>95</v>
       </c>
@@ -57892,7 +57892,7 @@
         <v>4.7226501976519513E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>97</v>
       </c>
@@ -57969,7 +57969,7 @@
         <v>5.1643318573473234E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>99</v>
       </c>
@@ -58046,7 +58046,7 @@
         <v>4.059417831365178E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>100</v>
       </c>
@@ -58123,7 +58123,7 @@
         <v>9.8595181181196385E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>102</v>
       </c>
@@ -58200,7 +58200,7 @@
         <v>3.7963100628567677E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>105</v>
       </c>
@@ -58277,7 +58277,7 @@
         <v>1.1664274554308138E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>104</v>
       </c>
@@ -58354,7 +58354,7 @@
         <v>6.3236046277811958E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>45</v>
       </c>
@@ -58431,7 +58431,7 @@
         <v>1.6018693406341204E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>40</v>
       </c>
@@ -58508,7 +58508,7 @@
         <v>7.8976875556492337E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>73</v>
       </c>
@@ -58585,7 +58585,7 @@
         <v>6.2579431827096627E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>25</v>
       </c>
@@ -58662,7 +58662,7 @@
         <v>7.2516343151128775E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>59</v>
       </c>
@@ -58739,7 +58739,7 @@
         <v>1.6694454052161981E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>96</v>
       </c>
@@ -58816,7 +58816,7 @@
         <v>1.2565460263898815E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>41</v>
       </c>
@@ -58893,7 +58893,7 @@
         <v>8.2911504365145317E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>98</v>
       </c>
@@ -58970,7 +58970,7 @@
         <v>2.529441851112478E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>24</v>
       </c>
@@ -59047,7 +59047,7 @@
         <v>3.4383162630376975E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>60</v>
       </c>
@@ -59124,7 +59124,7 @@
         <v>9.3550153999228114E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>21</v>
       </c>
@@ -59201,7 +59201,7 @@
         <v>1.9839221662054877E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>86</v>
       </c>
@@ -59278,7 +59278,7 @@
         <v>2.2777854186805169E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>54</v>
       </c>
@@ -59355,7 +59355,7 @@
         <v>6.1475786944295086E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>22</v>
       </c>
@@ -59432,7 +59432,7 @@
         <v>4.0971948507481076E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>103</v>
       </c>
@@ -59509,7 +59509,7 @@
         <v>2.0110399368272396E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>69</v>
       </c>
@@ -59586,7 +59586,7 @@
         <v>9.1840438051825259E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>13</v>
       </c>
@@ -59663,7 +59663,7 @@
         <v>1.262777345912626E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>51</v>
       </c>
@@ -59740,7 +59740,7 @@
         <v>3.9257283351393744E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>101</v>
       </c>
@@ -59817,7 +59817,7 @@
         <v>2.4433673854352814E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>37</v>
       </c>
@@ -59907,9 +59907,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -59986,7 +59986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -60063,7 +60063,7 @@
         <v>4.9798386443776916</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6</v>
       </c>
@@ -60140,7 +60140,7 @@
         <v>4.9664284675027563E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7</v>
       </c>
@@ -60217,7 +60217,7 @@
         <v>2.714363780321595E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8</v>
       </c>
@@ -60294,7 +60294,7 @@
         <v>3.2145184965102183E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9</v>
       </c>
@@ -60371,7 +60371,7 @@
         <v>2.917871514176059E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -60448,7 +60448,7 @@
         <v>1.7294147842647951</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>11</v>
       </c>
@@ -60525,7 +60525,7 @@
         <v>0.14172517524309233</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>12</v>
       </c>
@@ -60602,7 +60602,7 @@
         <v>7.2504255431283431E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>14</v>
       </c>
@@ -60679,7 +60679,7 @@
         <v>8.3536433959589498E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>15</v>
       </c>
@@ -60756,7 +60756,7 @@
         <v>1.0863435222876919E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>16</v>
       </c>
@@ -60833,7 +60833,7 @@
         <v>1.2440396982941679E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>17</v>
       </c>
@@ -60910,7 +60910,7 @@
         <v>1.3851936008521374E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>18</v>
       </c>
@@ -60987,7 +60987,7 @@
         <v>4.7468301941240246E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>19</v>
       </c>
@@ -61064,7 +61064,7 @@
         <v>2.4092278120338841E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>20</v>
       </c>
@@ -61141,7 +61141,7 @@
         <v>8.0502590717506456E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>23</v>
       </c>
@@ -61218,7 +61218,7 @@
         <v>3.6793105666268207E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>26</v>
       </c>
@@ -61295,7 +61295,7 @@
         <v>1.3754770692648799E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>27</v>
       </c>
@@ -61372,7 +61372,7 @@
         <v>2.7467936780530382E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>28</v>
       </c>
@@ -61449,7 +61449,7 @@
         <v>2.1135384236486792E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>29</v>
       </c>
@@ -61526,7 +61526,7 @@
         <v>8.6370842373627785E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>30</v>
       </c>
@@ -61603,7 +61603,7 @@
         <v>5.8660369303360965E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>31</v>
       </c>
@@ -61680,7 +61680,7 @@
         <v>4.4746877215150836E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>32</v>
       </c>
@@ -61757,7 +61757,7 @@
         <v>6.4205798730720867E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>33</v>
       </c>
@@ -61834,7 +61834,7 @@
         <v>7.3061975842521346E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>34</v>
       </c>
@@ -61911,7 +61911,7 @@
         <v>5.8594180613510667E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>35</v>
       </c>
@@ -61988,7 +61988,7 @@
         <v>2.2403498701711734E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>36</v>
       </c>
@@ -62065,7 +62065,7 @@
         <v>4.8782664508091851E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>38</v>
       </c>
@@ -62142,7 +62142,7 @@
         <v>2.8079837469577526E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>39</v>
       </c>
@@ -62219,7 +62219,7 @@
         <v>4.9116034410191193E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>42</v>
       </c>
@@ -62296,7 +62296,7 @@
         <v>1.5761020951655547E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>43</v>
       </c>
@@ -62373,7 +62373,7 @@
         <v>3.0229574407156568E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>44</v>
       </c>
@@ -62450,7 +62450,7 @@
         <v>1.0817934589121499E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>46</v>
       </c>
@@ -62527,7 +62527,7 @@
         <v>1.1766800736393622E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>47</v>
       </c>
@@ -62604,7 +62604,7 @@
         <v>9.4974891118273591E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>48</v>
       </c>
@@ -62681,7 +62681,7 @@
         <v>6.8947084521712965E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>49</v>
       </c>
@@ -62758,7 +62758,7 @@
         <v>2.5753000981483115E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>50</v>
       </c>
@@ -62835,7 +62835,7 @@
         <v>3.0038369410423354E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>52</v>
       </c>
@@ -62912,7 +62912,7 @@
         <v>1.6592231864862366E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>53</v>
       </c>
@@ -62989,7 +62989,7 @@
         <v>1.7356791339517948E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>55</v>
       </c>
@@ -63066,7 +63066,7 @@
         <v>9.2439688483240464E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>56</v>
       </c>
@@ -63143,7 +63143,7 @@
         <v>1.4439045380988593E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>57</v>
       </c>
@@ -63220,7 +63220,7 @@
         <v>1.6798474593391678E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>58</v>
       </c>
@@ -63297,7 +63297,7 @@
         <v>7.2427072585401764E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>61</v>
       </c>
@@ -63374,7 +63374,7 @@
         <v>0.27871168518742112</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>62</v>
       </c>
@@ -63451,7 +63451,7 @@
         <v>2.4094360425453744E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>63</v>
       </c>
@@ -63528,7 +63528,7 @@
         <v>4.7746610767629297E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>64</v>
       </c>
@@ -63605,7 +63605,7 @@
         <v>5.7458908582105638E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>65</v>
       </c>
@@ -63682,7 +63682,7 @@
         <v>5.0360901164522319E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>66</v>
       </c>
@@ -63759,7 +63759,7 @@
         <v>1.8725575868872586E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>67</v>
       </c>
@@ -63836,7 +63836,7 @@
         <v>1.0779399777009842E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>68</v>
       </c>
@@ -63913,7 +63913,7 @@
         <v>5.455442736055717E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>70</v>
       </c>
@@ -63990,7 +63990,7 @@
         <v>2.7369942666749175E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>71</v>
       </c>
@@ -64067,7 +64067,7 @@
         <v>1.5927705262311221E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>72</v>
       </c>
@@ -64144,7 +64144,7 @@
         <v>2.1476966423102221E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>74</v>
       </c>
@@ -64221,7 +64221,7 @@
         <v>3.9529790981264069E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>75</v>
       </c>
@@ -64298,7 +64298,7 @@
         <v>5.8625001111476942E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>76</v>
       </c>
@@ -64375,7 +64375,7 @@
         <v>3.0038918868471268E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>77</v>
       </c>
@@ -64452,7 +64452,7 @@
         <v>3.4925737268771623E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>78</v>
       </c>
@@ -64529,7 +64529,7 @@
         <v>9.1176034874507518E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>79</v>
       </c>
@@ -64606,7 +64606,7 @@
         <v>5.6279456281284536E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>81</v>
       </c>
@@ -64683,7 +64683,7 @@
         <v>1.5492002961349355E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>82</v>
       </c>
@@ -64760,7 +64760,7 @@
         <v>3.3519996882739973E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>83</v>
       </c>
@@ -64837,7 +64837,7 @@
         <v>1.788030881978556E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>84</v>
       </c>
@@ -64914,7 +64914,7 @@
         <v>3.8128719067457677E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>85</v>
       </c>
@@ -64991,7 +64991,7 @@
         <v>1.0117877903084337E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>87</v>
       </c>
@@ -65068,7 +65068,7 @@
         <v>3.1076170145704902E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>88</v>
       </c>
@@ -65145,7 +65145,7 @@
         <v>3.8306318253368129E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>89</v>
       </c>
@@ -65222,7 +65222,7 @@
         <v>3.3758767783863232E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>90</v>
       </c>
@@ -65299,7 +65299,7 @@
         <v>1.7405429775771218E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>91</v>
       </c>
@@ -65376,7 +65376,7 @@
         <v>1.9436325085369383E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>92</v>
       </c>
@@ -65453,7 +65453,7 @@
         <v>2.674018920198168E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>93</v>
       </c>
@@ -65530,7 +65530,7 @@
         <v>1.7212604710308867E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>94</v>
       </c>
@@ -65607,7 +65607,7 @@
         <v>7.1627074475522686E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>95</v>
       </c>
@@ -65684,7 +65684,7 @@
         <v>6.9782160853074995E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>97</v>
       </c>
@@ -65761,7 +65761,7 @@
         <v>3.4676105285489167E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>99</v>
       </c>
@@ -65838,7 +65838,7 @@
         <v>2.0095477245354917E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>100</v>
       </c>
@@ -65915,7 +65915,7 @@
         <v>9.0065949026619883E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>102</v>
       </c>
@@ -65992,7 +65992,7 @@
         <v>2.5448589183533096E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>105</v>
       </c>
@@ -66069,7 +66069,7 @@
         <v>1.1700135337253293E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>104</v>
       </c>
@@ -66146,7 +66146,7 @@
         <v>6.3236046277811958E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>45</v>
       </c>
@@ -66223,7 +66223,7 @@
         <v>1.1479759202066551E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>40</v>
       </c>
@@ -66300,7 +66300,7 @@
         <v>7.5915854703293784E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>73</v>
       </c>
@@ -66377,7 +66377,7 @@
         <v>6.081020384370377E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>25</v>
       </c>
@@ -66454,7 +66454,7 @@
         <v>5.4409371206342568E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>59</v>
       </c>
@@ -66531,7 +66531,7 @@
         <v>1.4994037657008515E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>96</v>
       </c>
@@ -66608,7 +66608,7 @@
         <v>8.7630138615866719E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>41</v>
       </c>
@@ -66685,7 +66685,7 @@
         <v>8.2421591989176989E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>98</v>
       </c>
@@ -66762,7 +66762,7 @@
         <v>2.529441851112478E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>24</v>
       </c>
@@ -66839,7 +66839,7 @@
         <v>3.3154889282187787E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>60</v>
       </c>
@@ -66916,7 +66916,7 @@
         <v>9.7782919028690067E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>21</v>
       </c>
@@ -66993,7 +66993,7 @@
         <v>5.8558307963894277E-4</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>86</v>
       </c>
@@ -67070,7 +67070,7 @@
         <v>1.898097334701605E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>54</v>
       </c>
@@ -67147,7 +67147,7 @@
         <v>1.4969120283423322E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>22</v>
       </c>
@@ -67224,7 +67224,7 @@
         <v>4.5018290708326364E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>103</v>
       </c>
@@ -67301,7 +67301,7 @@
         <v>2.8592142062592387E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>69</v>
       </c>
@@ -67378,7 +67378,7 @@
         <v>1.0293506107822648E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>13</v>
       </c>
@@ -67455,7 +67455,7 @@
         <v>1.1486393453771671E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>51</v>
       </c>
@@ -67532,7 +67532,7 @@
         <v>1.5564320676444219E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>101</v>
       </c>
@@ -67609,7 +67609,7 @@
         <v>2.7315090404430947E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>37</v>
       </c>
@@ -67699,9 +67699,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -67778,7 +67778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -67868,9 +67868,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -67947,7 +67947,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -68048,7 +68048,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6</v>
       </c>
@@ -68149,7 +68149,7 @@
         <v>8.7561602500000008E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7</v>
       </c>
@@ -68250,7 +68250,7 @@
         <v>3.5581520999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8</v>
       </c>
@@ -68351,7 +68351,7 @@
         <v>3.6417921250000008E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9</v>
       </c>
@@ -68452,7 +68452,7 @@
         <v>2.4433873750000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -68553,7 +68553,7 @@
         <v>0.15574149168750001</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>11</v>
       </c>
@@ -68654,7 +68654,7 @@
         <v>2.8926276400000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>12</v>
       </c>
@@ -68755,7 +68755,7 @@
         <v>9.2021762500000008E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>14</v>
       </c>
@@ -68856,7 +68856,7 @@
         <v>8.4241035462500016E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>15</v>
       </c>
@@ -68957,7 +68957,7 @@
         <v>1.1188922375000002E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>16</v>
       </c>
@@ -69058,7 +69058,7 @@
         <v>1.2775847500000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>17</v>
       </c>
@@ -69159,7 +69159,7 @@
         <v>2.5389078749999999E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>18</v>
       </c>
@@ -69260,7 +69260,7 @@
         <v>6.7932488750000006E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>19</v>
       </c>
@@ -69361,7 +69361,7 @@
         <v>2.5444968124999998E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>20</v>
       </c>
@@ -69462,7 +69462,7 @@
         <v>4.9271291337499995E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>23</v>
       </c>
@@ -69563,7 +69563,7 @@
         <v>2.9992747250000003E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>26</v>
       </c>
@@ -69664,7 +69664,7 @@
         <v>1.2778228000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>27</v>
       </c>
@@ -69765,7 +69765,7 @@
         <v>2.4790945000000003E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>28</v>
       </c>
@@ -69866,7 +69866,7 @@
         <v>3.4919463749999999E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>29</v>
       </c>
@@ -69967,7 +69967,7 @@
         <v>1.5616889999999998E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>30</v>
       </c>
@@ -70068,7 +70068,7 @@
         <v>7.6761371499999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>31</v>
       </c>
@@ -70169,7 +70169,7 @@
         <v>9.4762233750000013E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>32</v>
       </c>
@@ -70270,7 +70270,7 @@
         <v>5.9153616125000013E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>33</v>
       </c>
@@ -70371,7 +70371,7 @@
         <v>2.3363216412500002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>34</v>
       </c>
@@ -70472,7 +70472,7 @@
         <v>7.4089912500000015E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>35</v>
       </c>
@@ -70573,7 +70573,7 @@
         <v>5.0483460000000011E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>36</v>
       </c>
@@ -70674,7 +70674,7 @@
         <v>4.1013875000000003E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>38</v>
       </c>
@@ -70775,7 +70775,7 @@
         <v>4.1518676749999995E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>39</v>
       </c>
@@ -70876,7 +70876,7 @@
         <v>6.6988493124999996E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>42</v>
       </c>
@@ -70977,7 +70977,7 @@
         <v>2.1230766249999999E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>43</v>
       </c>
@@ -71078,7 +71078,7 @@
         <v>6.0577481249999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>44</v>
       </c>
@@ -71179,7 +71179,7 @@
         <v>4.8345179624999998E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>46</v>
       </c>
@@ -71280,7 +71280,7 @@
         <v>5.0501359875E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>47</v>
       </c>
@@ -71381,7 +71381,7 @@
         <v>1.3781500237500001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>48</v>
       </c>
@@ -71482,7 +71482,7 @@
         <v>7.9052162499999989E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>49</v>
       </c>
@@ -71583,7 +71583,7 @@
         <v>1.2741091875000002E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>50</v>
       </c>
@@ -71684,7 +71684,7 @@
         <v>2.7339628749999996E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>52</v>
       </c>
@@ -71785,7 +71785,7 @@
         <v>5.7388091249999996E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>53</v>
       </c>
@@ -71886,7 +71886,7 @@
         <v>1.1180165862500001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>55</v>
       </c>
@@ -71987,7 +71987,7 @@
         <v>1.6994237374999999E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>56</v>
       </c>
@@ -72088,7 +72088,7 @@
         <v>5.0074382500000006E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>57</v>
       </c>
@@ -72189,7 +72189,7 @@
         <v>4.6039736250000005E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>58</v>
       </c>
@@ -72290,7 +72290,7 @@
         <v>6.1770797500000012E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>61</v>
       </c>
@@ -72391,7 +72391,7 @@
         <v>3.5426589212500005E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>62</v>
       </c>
@@ -72492,7 +72492,7 @@
         <v>1.0286641250000001E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>63</v>
       </c>
@@ -72593,7 +72593,7 @@
         <v>6.7584037500000008E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>64</v>
       </c>
@@ -72694,7 +72694,7 @@
         <v>1.2173738850000003E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>65</v>
       </c>
@@ -72795,7 +72795,7 @@
         <v>2.4067362600000003E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>66</v>
       </c>
@@ -72896,7 +72896,7 @@
         <v>1.0941023062499999E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>67</v>
       </c>
@@ -72997,7 +72997,7 @@
         <v>1.4835145250000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>68</v>
       </c>
@@ -73098,7 +73098,7 @@
         <v>6.2693067375E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>70</v>
       </c>
@@ -73199,7 +73199,7 @@
         <v>3.9427588500000003E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>71</v>
       </c>
@@ -73300,7 +73300,7 @@
         <v>5.5449792500000014E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>72</v>
       </c>
@@ -73401,7 +73401,7 @@
         <v>5.1140841249999996E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>74</v>
       </c>
@@ -73502,7 +73502,7 @@
         <v>4.8639707500000004E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>75</v>
       </c>
@@ -73603,7 +73603,7 @@
         <v>6.1469638749999996E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>76</v>
       </c>
@@ -73704,7 +73704,7 @@
         <v>6.1154662500000013E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>77</v>
       </c>
@@ -73805,7 +73805,7 @@
         <v>1.3499826750000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>78</v>
       </c>
@@ -73906,7 +73906,7 @@
         <v>2.8766092375000006E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>79</v>
       </c>
@@ -74007,7 +74007,7 @@
         <v>6.8466054875000008E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>81</v>
       </c>
@@ -74108,7 +74108,7 @@
         <v>1.124644E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>82</v>
       </c>
@@ -74209,7 +74209,7 @@
         <v>4.1440707500000002E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>83</v>
       </c>
@@ -74310,7 +74310,7 @@
         <v>4.4127257375000005E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>84</v>
       </c>
@@ -74411,7 +74411,7 @@
         <v>6.3782406250000002E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>85</v>
       </c>
@@ -74512,7 +74512,7 @@
         <v>7.3077410000000004E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>87</v>
       </c>
@@ -74613,7 +74613,7 @@
         <v>2.0941017249999998E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>88</v>
       </c>
@@ -74714,7 +74714,7 @@
         <v>1.217606325E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>89</v>
       </c>
@@ -74815,7 +74815,7 @@
         <v>6.5575621250000009E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>90</v>
       </c>
@@ -74916,7 +74916,7 @@
         <v>1.2025290500000002E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>91</v>
       </c>
@@ -75017,7 +75017,7 @@
         <v>1.8437090875000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>92</v>
       </c>
@@ -75118,7 +75118,7 @@
         <v>8.7039062499999999E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>93</v>
       </c>
@@ -75219,7 +75219,7 @@
         <v>2.5500317625000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>94</v>
       </c>
@@ -75320,7 +75320,7 @@
         <v>2.3062015125000002E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>95</v>
       </c>
@@ -75421,7 +75421,7 @@
         <v>6.7960674375000009E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>97</v>
       </c>
@@ -75522,7 +75522,7 @@
         <v>6.0043893749999995E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>99</v>
       </c>
@@ -75623,7 +75623,7 @@
         <v>1.3238043599999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>100</v>
       </c>
@@ -75724,7 +75724,7 @@
         <v>1.3042255375000002E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>102</v>
       </c>
@@ -75825,7 +75825,7 @@
         <v>1.5210229112499999E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>105</v>
       </c>
@@ -75926,7 +75926,7 @@
         <v>1.456903375E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>104</v>
       </c>
@@ -76027,7 +76027,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>45</v>
       </c>
@@ -76128,7 +76128,7 @@
         <v>1.4359194999999999E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>40</v>
       </c>
@@ -76229,7 +76229,7 @@
         <v>1.2730405000000002E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>73</v>
       </c>
@@ -76330,7 +76330,7 @@
         <v>9.9679892500000012E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>25</v>
       </c>
@@ -76431,7 +76431,7 @@
         <v>7.9626673750000021E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>59</v>
       </c>
@@ -76532,7 +76532,7 @@
         <v>2.4362684875000001E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>96</v>
       </c>
@@ -76633,7 +76633,7 @@
         <v>1.1335114000000002E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>41</v>
       </c>
@@ -76734,7 +76734,7 @@
         <v>1.1916782500000001E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>98</v>
       </c>
@@ -76835,7 +76835,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>24</v>
       </c>
@@ -76936,7 +76936,7 @@
         <v>4.5268185624999999E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>60</v>
       </c>
@@ -77037,7 +77037,7 @@
         <v>1.3304969875000002E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>21</v>
       </c>
@@ -77138,7 +77138,7 @@
         <v>5.0232900000000005E-5</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>86</v>
       </c>
@@ -77239,7 +77239,7 @@
         <v>3.0801945749999999E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>54</v>
       </c>
@@ -77340,7 +77340,7 @@
         <v>3.5576824999999994E-4</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>22</v>
       </c>
@@ -77441,7 +77441,7 @@
         <v>4.0989183749999992E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>103</v>
       </c>
@@ -77542,7 +77542,7 @@
         <v>2.648296025E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>69</v>
       </c>
@@ -77643,7 +77643,7 @@
         <v>1.4596987124999999E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>13</v>
       </c>
@@ -77744,7 +77744,7 @@
         <v>1.6566599250000002E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>51</v>
       </c>
@@ -77845,7 +77845,7 @@
         <v>8.4044012500000007E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>101</v>
       </c>
@@ -77946,7 +77946,7 @@
         <v>3.4735183749999999E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>37</v>
       </c>

--- a/data/Simulations/PT1/Distribution_Network_PT1/Distribution_Network_PT1_2020.xlsx
+++ b/data/Simulations/PT1/Distribution_Network_PT1/Distribution_Network_PT1_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\Simulations\PT1\Distribution_Network_PT1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E271240-8B05-44C6-BFD7-3FE47AA2FA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7D5F5B-31F1-4471-8212-F0BD94CE54EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -141,13 +141,7 @@
       <sheetName val="Flexibility, Winter"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="B6">
-            <v>0.01</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -502,20 +496,21 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>5/7</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D1" s="1">
         <f>1/7</f>
@@ -526,7 +521,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -534,7 +529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -542,7 +537,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -563,9 +558,9 @@
       <selection activeCell="E86" sqref="A1:Y101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -642,7 +637,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -743,7 +738,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
@@ -844,7 +839,7 @@
         <v>8.7561602500000008E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7</v>
       </c>
@@ -945,7 +940,7 @@
         <v>3.5581520999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1046,7 +1041,7 @@
         <v>3.6417921250000008E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
@@ -1147,7 +1142,7 @@
         <v>2.4433873750000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -1248,7 +1243,7 @@
         <v>0.15574149168750001</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
@@ -1349,7 +1344,7 @@
         <v>2.8926276400000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>12</v>
       </c>
@@ -1450,7 +1445,7 @@
         <v>9.2021762500000008E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>14</v>
       </c>
@@ -1551,7 +1546,7 @@
         <v>8.4241035462500016E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>15</v>
       </c>
@@ -1652,7 +1647,7 @@
         <v>1.1188922375000002E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>16</v>
       </c>
@@ -1753,7 +1748,7 @@
         <v>1.2775847500000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>17</v>
       </c>
@@ -1854,7 +1849,7 @@
         <v>2.5389078749999999E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18</v>
       </c>
@@ -1955,7 +1950,7 @@
         <v>6.7932488750000006E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>19</v>
       </c>
@@ -2056,7 +2051,7 @@
         <v>2.5444968124999998E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20</v>
       </c>
@@ -2157,7 +2152,7 @@
         <v>4.9271291337499995E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>23</v>
       </c>
@@ -2258,7 +2253,7 @@
         <v>2.9992747250000003E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>26</v>
       </c>
@@ -2359,7 +2354,7 @@
         <v>1.2778228000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>27</v>
       </c>
@@ -2460,7 +2455,7 @@
         <v>2.4790945000000003E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>28</v>
       </c>
@@ -2561,7 +2556,7 @@
         <v>3.4919463749999999E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>29</v>
       </c>
@@ -2662,7 +2657,7 @@
         <v>1.5616889999999998E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>30</v>
       </c>
@@ -2763,7 +2758,7 @@
         <v>7.6761371499999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>31</v>
       </c>
@@ -2864,7 +2859,7 @@
         <v>9.4762233750000013E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32</v>
       </c>
@@ -2965,7 +2960,7 @@
         <v>5.9153616125000013E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>33</v>
       </c>
@@ -3066,7 +3061,7 @@
         <v>2.3363216412500002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>34</v>
       </c>
@@ -3167,7 +3162,7 @@
         <v>7.4089912500000015E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>35</v>
       </c>
@@ -3268,7 +3263,7 @@
         <v>5.0483460000000011E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>36</v>
       </c>
@@ -3369,7 +3364,7 @@
         <v>4.1013875000000003E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>38</v>
       </c>
@@ -3470,7 +3465,7 @@
         <v>4.1518676749999995E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>39</v>
       </c>
@@ -3571,7 +3566,7 @@
         <v>6.6988493124999996E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>42</v>
       </c>
@@ -3672,7 +3667,7 @@
         <v>2.1230766249999999E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>43</v>
       </c>
@@ -3773,7 +3768,7 @@
         <v>6.0577481249999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>44</v>
       </c>
@@ -3874,7 +3869,7 @@
         <v>4.8345179624999998E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>46</v>
       </c>
@@ -3975,7 +3970,7 @@
         <v>5.0501359875E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>47</v>
       </c>
@@ -4076,7 +4071,7 @@
         <v>1.3781500237500001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>48</v>
       </c>
@@ -4177,7 +4172,7 @@
         <v>7.9052162499999989E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>49</v>
       </c>
@@ -4278,7 +4273,7 @@
         <v>1.2741091875000002E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>50</v>
       </c>
@@ -4379,7 +4374,7 @@
         <v>2.7339628749999996E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>52</v>
       </c>
@@ -4480,7 +4475,7 @@
         <v>5.7388091249999996E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>53</v>
       </c>
@@ -4581,7 +4576,7 @@
         <v>1.1180165862500001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>55</v>
       </c>
@@ -4682,7 +4677,7 @@
         <v>1.6994237374999999E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>56</v>
       </c>
@@ -4783,7 +4778,7 @@
         <v>5.0074382500000006E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>57</v>
       </c>
@@ -4884,7 +4879,7 @@
         <v>4.6039736250000005E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>58</v>
       </c>
@@ -4985,7 +4980,7 @@
         <v>6.1770797500000012E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>61</v>
       </c>
@@ -5086,7 +5081,7 @@
         <v>3.5426589212500005E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>62</v>
       </c>
@@ -5187,7 +5182,7 @@
         <v>1.0286641250000001E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>63</v>
       </c>
@@ -5288,7 +5283,7 @@
         <v>6.7584037500000008E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>64</v>
       </c>
@@ -5389,7 +5384,7 @@
         <v>1.2173738850000003E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>65</v>
       </c>
@@ -5490,7 +5485,7 @@
         <v>2.4067362600000003E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>66</v>
       </c>
@@ -5591,7 +5586,7 @@
         <v>1.0941023062499999E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>67</v>
       </c>
@@ -5692,7 +5687,7 @@
         <v>1.4835145250000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>68</v>
       </c>
@@ -5793,7 +5788,7 @@
         <v>6.2693067375E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>70</v>
       </c>
@@ -5894,7 +5889,7 @@
         <v>3.9427588500000003E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>71</v>
       </c>
@@ -5995,7 +5990,7 @@
         <v>5.5449792500000014E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>72</v>
       </c>
@@ -6096,7 +6091,7 @@
         <v>5.1140841249999996E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>74</v>
       </c>
@@ -6197,7 +6192,7 @@
         <v>4.8639707500000004E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>75</v>
       </c>
@@ -6298,7 +6293,7 @@
         <v>6.1469638749999996E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>76</v>
       </c>
@@ -6399,7 +6394,7 @@
         <v>6.1154662500000013E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>77</v>
       </c>
@@ -6500,7 +6495,7 @@
         <v>1.3499826750000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>78</v>
       </c>
@@ -6601,7 +6596,7 @@
         <v>2.8766092375000006E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>79</v>
       </c>
@@ -6702,7 +6697,7 @@
         <v>6.8466054875000008E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>81</v>
       </c>
@@ -6803,7 +6798,7 @@
         <v>1.124644E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>82</v>
       </c>
@@ -6904,7 +6899,7 @@
         <v>4.1440707500000002E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>83</v>
       </c>
@@ -7005,7 +7000,7 @@
         <v>4.4127257375000005E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>84</v>
       </c>
@@ -7106,7 +7101,7 @@
         <v>6.3782406250000002E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>85</v>
       </c>
@@ -7207,7 +7202,7 @@
         <v>7.3077410000000004E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>87</v>
       </c>
@@ -7308,7 +7303,7 @@
         <v>2.0941017249999998E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>88</v>
       </c>
@@ -7409,7 +7404,7 @@
         <v>1.217606325E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>89</v>
       </c>
@@ -7510,7 +7505,7 @@
         <v>6.5575621250000009E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>90</v>
       </c>
@@ -7611,7 +7606,7 @@
         <v>1.2025290500000002E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>91</v>
       </c>
@@ -7712,7 +7707,7 @@
         <v>1.8437090875000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>92</v>
       </c>
@@ -7813,7 +7808,7 @@
         <v>8.7039062499999999E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>93</v>
       </c>
@@ -7914,7 +7909,7 @@
         <v>2.5500317625000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>94</v>
       </c>
@@ -8015,7 +8010,7 @@
         <v>2.3062015125000002E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>95</v>
       </c>
@@ -8116,7 +8111,7 @@
         <v>6.7960674375000009E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>97</v>
       </c>
@@ -8217,7 +8212,7 @@
         <v>6.0043893749999995E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>99</v>
       </c>
@@ -8318,7 +8313,7 @@
         <v>1.3238043599999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>100</v>
       </c>
@@ -8419,7 +8414,7 @@
         <v>1.3042255375000002E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>102</v>
       </c>
@@ -8520,7 +8515,7 @@
         <v>1.5210229112499999E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>105</v>
       </c>
@@ -8621,7 +8616,7 @@
         <v>1.456903375E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>104</v>
       </c>
@@ -8722,7 +8717,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>45</v>
       </c>
@@ -8823,7 +8818,7 @@
         <v>1.4359194999999999E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>40</v>
       </c>
@@ -8924,7 +8919,7 @@
         <v>1.2730405000000002E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>73</v>
       </c>
@@ -9025,7 +9020,7 @@
         <v>9.9679892500000012E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>25</v>
       </c>
@@ -9126,7 +9121,7 @@
         <v>7.9626673750000021E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>59</v>
       </c>
@@ -9227,7 +9222,7 @@
         <v>2.4362684875000001E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>96</v>
       </c>
@@ -9328,7 +9323,7 @@
         <v>1.1335114000000002E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>41</v>
       </c>
@@ -9429,7 +9424,7 @@
         <v>1.1916782500000001E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>98</v>
       </c>
@@ -9530,7 +9525,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>24</v>
       </c>
@@ -9631,7 +9626,7 @@
         <v>4.5268185624999999E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>60</v>
       </c>
@@ -9732,7 +9727,7 @@
         <v>1.3304969875000002E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>21</v>
       </c>
@@ -9833,7 +9828,7 @@
         <v>5.0232900000000005E-5</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>86</v>
       </c>
@@ -9934,7 +9929,7 @@
         <v>3.0801945749999999E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>54</v>
       </c>
@@ -10035,7 +10030,7 @@
         <v>3.5576824999999994E-4</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>22</v>
       </c>
@@ -10136,7 +10131,7 @@
         <v>4.0989183749999992E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>103</v>
       </c>
@@ -10237,7 +10232,7 @@
         <v>2.648296025E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>69</v>
       </c>
@@ -10338,7 +10333,7 @@
         <v>1.4596987124999999E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>13</v>
       </c>
@@ -10439,7 +10434,7 @@
         <v>1.6566599250000002E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>51</v>
       </c>
@@ -10540,7 +10535,7 @@
         <v>8.4044012500000007E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>101</v>
       </c>
@@ -10641,7 +10636,7 @@
         <v>3.4735183749999999E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>37</v>
       </c>
@@ -10755,9 +10750,9 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -10834,7 +10829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10935,7 +10930,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
@@ -11036,7 +11031,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7</v>
       </c>
@@ -11137,7 +11132,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8</v>
       </c>
@@ -11238,7 +11233,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
@@ -11339,7 +11334,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -11440,7 +11435,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
@@ -11541,7 +11536,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>12</v>
       </c>
@@ -11642,7 +11637,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>14</v>
       </c>
@@ -11743,7 +11738,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>15</v>
       </c>
@@ -11844,7 +11839,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>16</v>
       </c>
@@ -11945,7 +11940,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>17</v>
       </c>
@@ -12046,7 +12041,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18</v>
       </c>
@@ -12147,7 +12142,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>19</v>
       </c>
@@ -12248,7 +12243,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20</v>
       </c>
@@ -12349,7 +12344,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>23</v>
       </c>
@@ -12450,7 +12445,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>26</v>
       </c>
@@ -12551,7 +12546,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>27</v>
       </c>
@@ -12652,7 +12647,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>28</v>
       </c>
@@ -12753,7 +12748,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>29</v>
       </c>
@@ -12854,7 +12849,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>30</v>
       </c>
@@ -12955,7 +12950,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>31</v>
       </c>
@@ -13056,7 +13051,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32</v>
       </c>
@@ -13157,7 +13152,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>33</v>
       </c>
@@ -13258,7 +13253,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>34</v>
       </c>
@@ -13359,7 +13354,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>35</v>
       </c>
@@ -13460,7 +13455,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>36</v>
       </c>
@@ -13561,7 +13556,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>38</v>
       </c>
@@ -13662,7 +13657,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>39</v>
       </c>
@@ -13763,7 +13758,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>42</v>
       </c>
@@ -13864,7 +13859,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>43</v>
       </c>
@@ -13965,7 +13960,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>44</v>
       </c>
@@ -14066,7 +14061,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>46</v>
       </c>
@@ -14167,7 +14162,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>47</v>
       </c>
@@ -14268,7 +14263,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>48</v>
       </c>
@@ -14369,7 +14364,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>49</v>
       </c>
@@ -14470,7 +14465,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>50</v>
       </c>
@@ -14571,7 +14566,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>52</v>
       </c>
@@ -14672,7 +14667,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>53</v>
       </c>
@@ -14773,7 +14768,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>55</v>
       </c>
@@ -14874,7 +14869,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>56</v>
       </c>
@@ -14975,7 +14970,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>57</v>
       </c>
@@ -15076,7 +15071,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>58</v>
       </c>
@@ -15177,7 +15172,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>61</v>
       </c>
@@ -15278,7 +15273,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>62</v>
       </c>
@@ -15379,7 +15374,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>63</v>
       </c>
@@ -15480,7 +15475,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>64</v>
       </c>
@@ -15581,7 +15576,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>65</v>
       </c>
@@ -15682,7 +15677,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>66</v>
       </c>
@@ -15783,7 +15778,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>67</v>
       </c>
@@ -15884,7 +15879,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>68</v>
       </c>
@@ -15985,7 +15980,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>70</v>
       </c>
@@ -16086,7 +16081,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>71</v>
       </c>
@@ -16187,7 +16182,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>72</v>
       </c>
@@ -16288,7 +16283,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>74</v>
       </c>
@@ -16389,7 +16384,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>75</v>
       </c>
@@ -16490,7 +16485,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>76</v>
       </c>
@@ -16591,7 +16586,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>77</v>
       </c>
@@ -16692,7 +16687,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>78</v>
       </c>
@@ -16793,7 +16788,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>79</v>
       </c>
@@ -16894,7 +16889,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>81</v>
       </c>
@@ -16995,7 +16990,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>82</v>
       </c>
@@ -17096,7 +17091,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>83</v>
       </c>
@@ -17197,7 +17192,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>84</v>
       </c>
@@ -17298,7 +17293,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>85</v>
       </c>
@@ -17399,7 +17394,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>87</v>
       </c>
@@ -17500,7 +17495,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>88</v>
       </c>
@@ -17601,7 +17596,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>89</v>
       </c>
@@ -17702,7 +17697,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>90</v>
       </c>
@@ -17803,7 +17798,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>91</v>
       </c>
@@ -17904,7 +17899,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>92</v>
       </c>
@@ -18005,7 +18000,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>93</v>
       </c>
@@ -18106,7 +18101,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>94</v>
       </c>
@@ -18207,7 +18202,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>95</v>
       </c>
@@ -18308,7 +18303,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>97</v>
       </c>
@@ -18409,7 +18404,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>99</v>
       </c>
@@ -18510,7 +18505,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>100</v>
       </c>
@@ -18611,7 +18606,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>102</v>
       </c>
@@ -18712,7 +18707,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>105</v>
       </c>
@@ -18813,7 +18808,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>104</v>
       </c>
@@ -18914,7 +18909,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>45</v>
       </c>
@@ -19015,7 +19010,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>40</v>
       </c>
@@ -19116,7 +19111,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>73</v>
       </c>
@@ -19217,7 +19212,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>25</v>
       </c>
@@ -19318,7 +19313,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>59</v>
       </c>
@@ -19419,7 +19414,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>96</v>
       </c>
@@ -19520,7 +19515,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>41</v>
       </c>
@@ -19621,7 +19616,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>98</v>
       </c>
@@ -19722,7 +19717,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>24</v>
       </c>
@@ -19823,7 +19818,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>60</v>
       </c>
@@ -19924,7 +19919,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>21</v>
       </c>
@@ -20025,7 +20020,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>86</v>
       </c>
@@ -20126,7 +20121,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>54</v>
       </c>
@@ -20227,7 +20222,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>22</v>
       </c>
@@ -20328,7 +20323,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>103</v>
       </c>
@@ -20429,7 +20424,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>69</v>
       </c>
@@ -20530,7 +20525,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>13</v>
       </c>
@@ -20631,7 +20626,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>51</v>
       </c>
@@ -20732,7 +20727,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>101</v>
       </c>
@@ -20833,7 +20828,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>37</v>
       </c>
@@ -20947,9 +20942,9 @@
       <selection activeCell="B56" sqref="B56:Y56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -21026,7 +21021,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21103,7 +21098,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
@@ -21180,7 +21175,7 @@
         <v>1.7512320500000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7</v>
       </c>
@@ -21257,7 +21252,7 @@
         <v>7.1163041999999996E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8</v>
       </c>
@@ -21334,7 +21329,7 @@
         <v>7.2835842500000008E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
@@ -21411,7 +21406,7 @@
         <v>0.48867747499999997</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -21488,7 +21483,7 @@
         <v>3.11482983375</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
@@ -21565,7 +21560,7 @@
         <v>0.57852552800000001</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>12</v>
       </c>
@@ -21642,7 +21637,7 @@
         <v>1.8404352500000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>14</v>
       </c>
@@ -21719,7 +21714,7 @@
         <v>1.6848207092500003</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>15</v>
       </c>
@@ -21796,7 +21791,7 @@
         <v>2.2377844750000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>16</v>
       </c>
@@ -21873,7 +21868,7 @@
         <v>2.5551694999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>17</v>
       </c>
@@ -21950,7 +21945,7 @@
         <v>5.0778157499999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18</v>
       </c>
@@ -22027,7 +22022,7 @@
         <v>1.3586497750000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>19</v>
       </c>
@@ -22104,7 +22099,7 @@
         <v>5.0889936249999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20</v>
       </c>
@@ -22181,7 +22176,7 @@
         <v>0.9854258267499999</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>23</v>
       </c>
@@ -22258,7 +22253,7 @@
         <v>5.99854945E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>26</v>
       </c>
@@ -22335,7 +22330,7 @@
         <v>2.5556456000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>27</v>
       </c>
@@ -22412,7 +22407,7 @@
         <v>4.958189E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>28</v>
       </c>
@@ -22489,7 +22484,7 @@
         <v>6.9838927499999995E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>29</v>
       </c>
@@ -22566,7 +22561,7 @@
         <v>3.1233779999999996E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>30</v>
       </c>
@@ -22643,7 +22638,7 @@
         <v>0.15352274299999999</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>31</v>
       </c>
@@ -22720,7 +22715,7 @@
         <v>1.8952446750000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32</v>
       </c>
@@ -22797,7 +22792,7 @@
         <v>0.11830723225000002</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>33</v>
       </c>
@@ -22874,7 +22869,7 @@
         <v>0.46726432825000003</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>34</v>
       </c>
@@ -22951,7 +22946,7 @@
         <v>1.4817982500000002E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>35</v>
       </c>
@@ -23028,7 +23023,7 @@
         <v>1.0096692000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>36</v>
       </c>
@@ -23105,7 +23100,7 @@
         <v>8.2027750000000007E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>38</v>
       </c>
@@ -23182,7 +23177,7 @@
         <v>8.3037353499999994E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>39</v>
       </c>
@@ -23259,7 +23254,7 @@
         <v>0.13397698624999999</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>42</v>
       </c>
@@ -23336,7 +23331,7 @@
         <v>4.2461532499999998E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>43</v>
       </c>
@@ -23413,7 +23408,7 @@
         <v>0.12115496249999999</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>44</v>
       </c>
@@ -23490,7 +23485,7 @@
         <v>9.6690359249999996E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>46</v>
       </c>
@@ -23567,7 +23562,7 @@
         <v>0.10100271975</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>47</v>
       </c>
@@ -23644,7 +23639,7 @@
         <v>0.27563000474999999</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>48</v>
       </c>
@@ -23721,7 +23716,7 @@
         <v>1.5810432499999997E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>49</v>
       </c>
@@ -23798,7 +23793,7 @@
         <v>2.5482183750000002E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>50</v>
       </c>
@@ -23875,7 +23870,7 @@
         <v>5.467925749999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>52</v>
       </c>
@@ -23952,7 +23947,7 @@
         <v>1.1477618249999998E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>53</v>
       </c>
@@ -24029,7 +24024,7 @@
         <v>0.22360331725000002</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>55</v>
       </c>
@@ -24106,7 +24101,7 @@
         <v>3.3988474749999997E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>56</v>
       </c>
@@ -24183,7 +24178,7 @@
         <v>1.00148765E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>57</v>
       </c>
@@ -24260,7 +24255,7 @@
         <v>9.2079472500000009E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>58</v>
       </c>
@@ -24337,7 +24332,7 @@
         <v>1.2354159500000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>61</v>
       </c>
@@ -24414,7 +24409,7 @@
         <v>0.70853178425000007</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>62</v>
       </c>
@@ -24491,7 +24486,7 @@
         <v>2.0573282500000001E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>63</v>
       </c>
@@ -24568,7 +24563,7 @@
         <v>1.3516807500000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>64</v>
       </c>
@@ -24645,7 +24640,7 @@
         <v>0.24347477700000003</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>65</v>
       </c>
@@ -24722,7 +24717,7 @@
         <v>0.481347252</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>66</v>
       </c>
@@ -24799,7 +24794,7 @@
         <v>0.21882046124999999</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>67</v>
       </c>
@@ -24876,7 +24871,7 @@
         <v>2.9670290500000002E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>68</v>
       </c>
@@ -24953,7 +24948,7 @@
         <v>0.12538613474999999</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>70</v>
       </c>
@@ -25030,7 +25025,7 @@
         <v>7.8855176999999999E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>71</v>
       </c>
@@ -25107,7 +25102,7 @@
         <v>1.1089958500000002E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>72</v>
       </c>
@@ -25184,7 +25179,7 @@
         <v>1.0228168249999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>74</v>
       </c>
@@ -25261,7 +25256,7 @@
         <v>9.7279415000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>75</v>
       </c>
@@ -25338,7 +25333,7 @@
         <v>0.12293927749999999</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>76</v>
       </c>
@@ -25415,7 +25410,7 @@
         <v>1.2230932500000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>77</v>
       </c>
@@ -25492,7 +25487,7 @@
         <v>2.6999653500000002E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>78</v>
       </c>
@@ -25569,7 +25564,7 @@
         <v>5.7532184750000007E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>79</v>
       </c>
@@ -25646,7 +25641,7 @@
         <v>0.13693210975</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>81</v>
       </c>
@@ -25723,7 +25718,7 @@
         <v>2.2492879999999999E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>82</v>
       </c>
@@ -25800,7 +25795,7 @@
         <v>8.2881415000000003E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>83</v>
       </c>
@@ -25877,7 +25872,7 @@
         <v>8.8254514749999999E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>84</v>
       </c>
@@ -25954,7 +25949,7 @@
         <v>1.275648125E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>85</v>
       </c>
@@ -26031,7 +26026,7 @@
         <v>1.4615482000000001E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>87</v>
       </c>
@@ -26108,7 +26103,7 @@
         <v>4.1882034499999998E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>88</v>
       </c>
@@ -26185,7 +26180,7 @@
         <v>2.4352126499999998E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>89</v>
       </c>
@@ -26262,7 +26257,7 @@
         <v>1.311512425E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>90</v>
       </c>
@@ -26339,7 +26334,7 @@
         <v>2.4050581000000001E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>91</v>
       </c>
@@ -26416,7 +26411,7 @@
         <v>3.6874181749999999E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>92</v>
       </c>
@@ -26493,7 +26488,7 @@
         <v>1.7407812499999999E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>93</v>
       </c>
@@ -26570,7 +26565,7 @@
         <v>5.1000635250000002E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>94</v>
       </c>
@@ -26647,7 +26642,7 @@
         <v>4.6124030250000003E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>95</v>
       </c>
@@ -26724,7 +26719,7 @@
         <v>0.13592134875</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>97</v>
       </c>
@@ -26801,7 +26796,7 @@
         <v>1.2008778749999999E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>99</v>
       </c>
@@ -26878,7 +26873,7 @@
         <v>0.26476087199999998</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>100</v>
       </c>
@@ -26955,7 +26950,7 @@
         <v>2.6084510750000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>102</v>
       </c>
@@ -27032,7 +27027,7 @@
         <v>0.30420458224999997</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>105</v>
       </c>
@@ -27109,7 +27104,7 @@
         <v>2.9138067500000002E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>104</v>
       </c>
@@ -27186,7 +27181,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>45</v>
       </c>
@@ -27263,7 +27258,7 @@
         <v>2.8718389999999997E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>40</v>
       </c>
@@ -27340,7 +27335,7 @@
         <v>2.5460810000000004E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>73</v>
       </c>
@@ -27417,7 +27412,7 @@
         <v>1.99359785E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>25</v>
       </c>
@@ -27494,7 +27489,7 @@
         <v>1.5925334750000002E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>59</v>
       </c>
@@ -27571,7 +27566,7 @@
         <v>4.8725369749999997E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>96</v>
       </c>
@@ -27648,7 +27643,7 @@
         <v>2.2670228000000001E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>41</v>
       </c>
@@ -27725,7 +27720,7 @@
         <v>2.3833565000000001E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>98</v>
       </c>
@@ -27802,7 +27797,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>24</v>
       </c>
@@ -27879,7 +27874,7 @@
         <v>9.0536371249999997E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>60</v>
       </c>
@@ -27956,7 +27951,7 @@
         <v>2.6609939750000002E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>21</v>
       </c>
@@ -28033,7 +28028,7 @@
         <v>1.0046580000000001E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>86</v>
       </c>
@@ -28110,7 +28105,7 @@
         <v>6.1603891499999994E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>54</v>
       </c>
@@ -28187,7 +28182,7 @@
         <v>7.1153649999999985E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>22</v>
       </c>
@@ -28264,7 +28259,7 @@
         <v>8.1978367499999979E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>103</v>
       </c>
@@ -28341,7 +28336,7 @@
         <v>5.2965920499999992E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>69</v>
       </c>
@@ -28418,7 +28413,7 @@
         <v>2.9193974249999997E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>13</v>
       </c>
@@ -28495,7 +28490,7 @@
         <v>3.3133198500000002E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>51</v>
       </c>
@@ -28572,7 +28567,7 @@
         <v>1.6808802500000001E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>101</v>
       </c>
@@ -28649,7 +28644,7 @@
         <v>6.9470367499999991E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>37</v>
       </c>
@@ -28739,9 +28734,9 @@
       <selection activeCell="B2" sqref="B2:Y101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -28818,7 +28813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -28895,7 +28890,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>6</v>
       </c>
@@ -28972,7 +28967,7 @@
         <v>1.4801309750000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>7</v>
       </c>
@@ -29049,7 +29044,7 @@
         <v>4.0269919500000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>8</v>
       </c>
@@ -29126,7 +29121,7 @@
         <v>5.8193817499999998E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>9</v>
       </c>
@@ -29203,7 +29198,7 @@
         <v>1.252490425E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>10</v>
       </c>
@@ -29280,7 +29275,7 @@
         <v>3.0990477907499998</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>11</v>
       </c>
@@ -29357,7 +29352,7 @@
         <v>0.46782415025000001</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>12</v>
       </c>
@@ -29434,7 +29429,7 @@
         <v>2.141625E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>14</v>
       </c>
@@ -29511,7 +29506,7 @@
         <v>0.11290278625</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>15</v>
       </c>
@@ -29588,7 +29583,7 @@
         <v>2.5139917749999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>16</v>
       </c>
@@ -29665,7 +29660,7 @@
         <v>2.1315360250000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>17</v>
       </c>
@@ -29742,7 +29737,7 @@
         <v>2.882028E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>18</v>
       </c>
@@ -29819,7 +29814,7 @@
         <v>1.15750095E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>19</v>
       </c>
@@ -29896,7 +29891,7 @@
         <v>4.6512717500000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>20</v>
       </c>
@@ -29973,7 +29968,7 @@
         <v>4.5868021000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>23</v>
       </c>
@@ -30050,7 +30045,7 @@
         <v>8.69139375E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>26</v>
       </c>
@@ -30127,7 +30122,7 @@
         <v>2.2486008500000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>27</v>
       </c>
@@ -30204,7 +30199,7 @@
         <v>3.0688867500000003E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>28</v>
       </c>
@@ -30281,7 +30276,7 @@
         <v>3.8624971500000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>29</v>
       </c>
@@ -30358,7 +30353,7 @@
         <v>2.473310225E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>30</v>
       </c>
@@ -30435,7 +30430,7 @@
         <v>0.13810974874999998</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>31</v>
       </c>
@@ -30512,7 +30507,7 @@
         <v>8.6893279999999996E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>32</v>
       </c>
@@ -30589,7 +30584,7 @@
         <v>7.0109401749999994E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>33</v>
       </c>
@@ -30666,7 +30661,7 @@
         <v>2.9920162249999997E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>34</v>
       </c>
@@ -30743,7 +30738,7 @@
         <v>9.5114074999999999E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>35</v>
       </c>
@@ -30820,7 +30815,7 @@
         <v>1.9266552499999996E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>36</v>
       </c>
@@ -30897,7 +30892,7 @@
         <v>9.8740194999999992E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>38</v>
       </c>
@@ -30974,7 +30969,7 @@
         <v>6.5118177499999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>39</v>
       </c>
@@ -31051,7 +31046,7 @@
         <v>0.11017681900000001</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>42</v>
       </c>
@@ -31128,7 +31123,7 @@
         <v>3.0995562500000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43</v>
       </c>
@@ -31205,7 +31200,7 @@
         <v>4.7175934999999997E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>44</v>
       </c>
@@ -31282,7 +31277,7 @@
         <v>1.4404450749999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>46</v>
       </c>
@@ -31359,7 +31354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>47</v>
       </c>
@@ -31436,7 +31431,7 @@
         <v>0.37348346724999998</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>48</v>
       </c>
@@ -31513,7 +31508,7 @@
         <v>1.35344825E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>49</v>
       </c>
@@ -31590,7 +31585,7 @@
         <v>3.4914863500000004E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>50</v>
       </c>
@@ -31667,7 +31662,7 @@
         <v>3.401598E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>52</v>
       </c>
@@ -31744,7 +31739,7 @@
         <v>3.5148712499999996E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>53</v>
       </c>
@@ -31821,7 +31816,7 @@
         <v>0.15614503099999999</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>55</v>
       </c>
@@ -31898,7 +31893,7 @@
         <v>2.8145774500000002E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>56</v>
       </c>
@@ -31975,7 +31970,7 @@
         <v>1.0698026250000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>57</v>
       </c>
@@ -32052,7 +32047,7 @@
         <v>3.9454727499999998E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>58</v>
       </c>
@@ -32129,7 +32124,7 @@
         <v>1.3588213750000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>61</v>
       </c>
@@ -32206,7 +32201,7 @@
         <v>0.52513783275000003</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>62</v>
       </c>
@@ -32283,7 +32278,7 @@
         <v>5.3524485000000007E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>63</v>
       </c>
@@ -32360,7 +32355,7 @@
         <v>1.0948432499999997E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>64</v>
       </c>
@@ -32437,7 +32432,7 @@
         <v>6.5222228999999993E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>65</v>
       </c>
@@ -32514,7 +32509,7 @@
         <v>0.13746475600000002</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>66</v>
       </c>
@@ -32591,7 +32586,7 @@
         <v>5.6606013500000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>67</v>
       </c>
@@ -32668,7 +32663,7 @@
         <v>3.2664443000000008E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>68</v>
       </c>
@@ -32745,7 +32740,7 @@
         <v>0.10995635999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>70</v>
       </c>
@@ -32822,7 +32817,7 @@
         <v>6.05864505E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>71</v>
       </c>
@@ -32899,7 +32894,7 @@
         <v>2.039187E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>72</v>
       </c>
@@ -32976,7 +32971,7 @@
         <v>1.9419785000000002E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>74</v>
       </c>
@@ -33053,7 +33048,7 @@
         <v>9.1757045000000013E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>75</v>
       </c>
@@ -33130,7 +33125,7 @@
         <v>0.12808690250000002</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>76</v>
       </c>
@@ -33207,7 +33202,7 @@
         <v>6.1710039999999999E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>77</v>
       </c>
@@ -33284,7 +33279,7 @@
         <v>8.3890955000000007E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>78</v>
       </c>
@@ -33361,7 +33356,7 @@
         <v>1.6433475000000001E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>79</v>
       </c>
@@ -33438,7 +33433,7 @@
         <v>0.12079502125</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>81</v>
       </c>
@@ -33515,7 +33510,7 @@
         <v>3.8269300000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>82</v>
       </c>
@@ -33592,7 +33587,7 @@
         <v>6.3668862500000003E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>83</v>
       </c>
@@ -33669,7 +33664,7 @@
         <v>5.3779920499999995E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>84</v>
       </c>
@@ -33746,7 +33741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>85</v>
       </c>
@@ -33823,7 +33818,7 @@
         <v>1.196059625E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>87</v>
       </c>
@@ -33900,7 +33895,7 @@
         <v>3.9012402499999997E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>88</v>
       </c>
@@ -33977,7 +33972,7 @@
         <v>7.8814410000000012E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>89</v>
       </c>
@@ -34054,7 +34049,7 @@
         <v>6.6617452499999992E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>90</v>
       </c>
@@ -34131,7 +34126,7 @@
         <v>5.2240176500000006E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>91</v>
       </c>
@@ -34208,7 +34203,7 @@
         <v>3.9247199000000003E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>92</v>
       </c>
@@ -34285,7 +34280,7 @@
         <v>4.0665500000000002E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>93</v>
       </c>
@@ -34362,7 +34357,7 @@
         <v>3.7304495E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>94</v>
       </c>
@@ -34439,7 +34434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>95</v>
       </c>
@@ -34516,7 +34511,7 @@
         <v>9.2182512500000018E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>97</v>
       </c>
@@ -34593,7 +34588,7 @@
         <v>1.0080379999999999E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>99</v>
       </c>
@@ -34670,7 +34665,7 @@
         <v>7.9236725000000008E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>100</v>
       </c>
@@ -34747,7 +34742,7 @@
         <v>1.924502375E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>102</v>
       </c>
@@ -34824,7 +34819,7 @@
         <v>7.4101062999999995E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>105</v>
       </c>
@@ -34901,7 +34896,7 @@
         <v>2.2767770000000002E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>104</v>
       </c>
@@ -34978,7 +34973,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>45</v>
       </c>
@@ -35055,7 +35050,7 @@
         <v>4.0530537500000005E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>40</v>
       </c>
@@ -35132,7 +35127,7 @@
         <v>1.9982748500000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>73</v>
       </c>
@@ -35209,7 +35204,7 @@
         <v>1.583386325E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>25</v>
       </c>
@@ -35286,7 +35281,7 @@
         <v>1.8348103000000001E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>59</v>
       </c>
@@ -35363,7 +35358,7 @@
         <v>4.2240348750000004E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>96</v>
       </c>
@@ -35440,7 +35435,7 @@
         <v>3.1793158500000002E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>41</v>
       </c>
@@ -35517,7 +35512,7 @@
         <v>2.0978289250000001E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>98</v>
       </c>
@@ -35594,7 +35589,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>24</v>
       </c>
@@ -35671,7 +35666,7 @@
         <v>8.699636275E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>60</v>
       </c>
@@ -35748,7 +35743,7 @@
         <v>2.3670083000000001E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>21</v>
       </c>
@@ -35825,7 +35820,7 @@
         <v>5.0197247500000002E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>86</v>
       </c>
@@ -35902,7 +35897,7 @@
         <v>5.7632582749999994E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>54</v>
       </c>
@@ -35979,7 +35974,7 @@
         <v>1.5554618749999999E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>22</v>
       </c>
@@ -36056,7 +36051,7 @@
         <v>1.0366732500000002E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>103</v>
       </c>
@@ -36133,7 +36128,7 @@
         <v>5.0883381999999998E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>69</v>
       </c>
@@ -36210,7 +36205,7 @@
         <v>2.3237490249999999E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>13</v>
       </c>
@@ -36287,7 +36282,7 @@
         <v>3.1950823499999996E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>51</v>
       </c>
@@ -36364,7 +36359,7 @@
         <v>9.9328874999999994E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>101</v>
       </c>
@@ -36441,7 +36436,7 @@
         <v>6.1822141749999997E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>37</v>
       </c>
@@ -36531,9 +36526,9 @@
       <selection activeCell="B2" sqref="B2:Y101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -36610,7 +36605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -36687,7 +36682,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
@@ -36764,7 +36759,7 @@
         <v>9.6940877500000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7</v>
       </c>
@@ -36841,7 +36836,7 @@
         <v>5.2982300750000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8</v>
       </c>
@@ -36918,7 +36913,7 @@
         <v>6.2744937499999995E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
@@ -36995,7 +36990,7 @@
         <v>5.695461575E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -37072,7 +37067,7 @@
         <v>3.3756851194999999</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
@@ -37149,7 +37144,7 @@
         <v>0.27663668050000001</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>12</v>
       </c>
@@ -37226,7 +37221,7 @@
         <v>1.4152275E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>14</v>
       </c>
@@ -37303,7 +37298,7 @@
         <v>0.16305671699999999</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>15</v>
       </c>
@@ -37380,7 +37375,7 @@
         <v>2.1204593000000004E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>16</v>
       </c>
@@ -37457,7 +37452,7 @@
         <v>2.42827015E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>17</v>
       </c>
@@ -37534,7 +37529,7 @@
         <v>2.7037917500000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18</v>
       </c>
@@ -37611,7 +37606,7 @@
         <v>9.2654487500000004E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>19</v>
       </c>
@@ -37688,7 +37683,7 @@
         <v>4.7026280499999996E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20</v>
       </c>
@@ -37765,7 +37760,7 @@
         <v>0.15713488749999999</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>23</v>
       </c>
@@ -37842,7 +37837,7 @@
         <v>7.1817322500000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>26</v>
       </c>
@@ -37919,7 +37914,7 @@
         <v>2.684825825E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>27</v>
       </c>
@@ -37996,7 +37991,7 @@
         <v>5.3615307500000002E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>28</v>
       </c>
@@ -38073,7 +38068,7 @@
         <v>4.1254650249999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>29</v>
       </c>
@@ -38150,7 +38145,7 @@
         <v>1.68589265E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>30</v>
       </c>
@@ -38227,7 +38222,7 @@
         <v>0.11450054525</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>31</v>
       </c>
@@ -38304,7 +38299,7 @@
         <v>8.7342475000000003E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32</v>
       </c>
@@ -38381,7 +38376,7 @@
         <v>0.1253247985</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>33</v>
       </c>
@@ -38458,7 +38453,7 @@
         <v>0.1426113775</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>34</v>
       </c>
@@ -38535,7 +38530,7 @@
         <v>1.1437135000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>35</v>
       </c>
@@ -38612,7 +38607,7 @@
         <v>4.3729912500000004E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>36</v>
       </c>
@@ -38689,7 +38684,7 @@
         <v>9.5220022499999998E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>38</v>
       </c>
@@ -38766,7 +38761,7 @@
         <v>5.4809690750000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>39</v>
       </c>
@@ -38843,7 +38838,7 @@
         <v>9.5870735000000012E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>42</v>
       </c>
@@ -38920,7 +38915,7 @@
         <v>3.0764305000000004E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>43</v>
       </c>
@@ -38997,7 +38992,7 @@
         <v>5.9005812500000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>44</v>
       </c>
@@ -39074,7 +39069,7 @@
         <v>2.1115779249999998E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>46</v>
       </c>
@@ -39151,7 +39146,7 @@
         <v>2.2967893249999996E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>47</v>
       </c>
@@ -39228,7 +39223,7 @@
         <v>0.18538370874999999</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>48</v>
       </c>
@@ -39305,7 +39300,7 @@
         <v>1.3457942500000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>49</v>
       </c>
@@ -39382,7 +39377,7 @@
         <v>5.0267884249999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>50</v>
       </c>
@@ -39459,7 +39454,7 @@
         <v>5.8632595000000006E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>52</v>
       </c>
@@ -39536,7 +39531,7 @@
         <v>3.2386765000000004E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>53</v>
       </c>
@@ -39613,7 +39608,7 @@
         <v>3.3879126499999995E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>55</v>
       </c>
@@ -39690,7 +39685,7 @@
         <v>1.8043518749999998E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>56</v>
       </c>
@@ -39767,7 +39762,7 @@
         <v>2.818391E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>57</v>
       </c>
@@ -39844,7 +39839,7 @@
         <v>3.2789335000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>58</v>
       </c>
@@ -39921,7 +39916,7 @@
         <v>1.4137209500000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>61</v>
       </c>
@@ -39998,7 +39993,7 @@
         <v>0.54402384949999993</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>62</v>
       </c>
@@ -40075,7 +40070,7 @@
         <v>4.7030345000000006E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>63</v>
       </c>
@@ -40152,7 +40147,7 @@
         <v>9.3197725000000004E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>64</v>
       </c>
@@ -40229,7 +40224,7 @@
         <v>0.112155386</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>65</v>
       </c>
@@ -40306,7 +40301,7 @@
         <v>9.8300619500000005E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>66</v>
       </c>
@@ -40383,7 +40378,7 @@
         <v>3.6550888999999996E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>67</v>
       </c>
@@ -40460,7 +40455,7 @@
         <v>2.1040562249999999E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>68</v>
       </c>
@@ -40537,7 +40532,7 @@
         <v>0.10648606125</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>70</v>
       </c>
@@ -40614,7 +40609,7 @@
         <v>5.3424030500000004E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>71</v>
       </c>
@@ -40691,7 +40686,7 @@
         <v>3.1089660000000003E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>72</v>
       </c>
@@ -40768,7 +40763,7 @@
         <v>4.19213925E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>74</v>
       </c>
@@ -40845,7 +40840,7 @@
         <v>7.71591225E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>75</v>
       </c>
@@ -40922,7 +40917,7 @@
         <v>0.11443150925000001</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>76</v>
       </c>
@@ -40999,7 +40994,7 @@
         <v>5.8633667499999997E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>77</v>
       </c>
@@ -41076,7 +41071,7 @@
         <v>6.8172362499999998E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>78</v>
       </c>
@@ -41153,7 +41148,7 @@
         <v>1.7796863250000003E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>79</v>
       </c>
@@ -41230,7 +41225,7 @@
         <v>0.10985318549999999</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>81</v>
       </c>
@@ -41307,7 +41302,7 @@
         <v>3.0239202500000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>82</v>
       </c>
@@ -41384,7 +41379,7 @@
         <v>6.5428464999999995E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>83</v>
       </c>
@@ -41461,7 +41456,7 @@
         <v>3.4900992499999998E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>84</v>
       </c>
@@ -41538,7 +41533,7 @@
         <v>7.4424337500000005E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>85</v>
       </c>
@@ -41615,7 +41610,7 @@
         <v>1.974932225E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>87</v>
       </c>
@@ -41692,7 +41687,7 @@
         <v>6.0658302500000002E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>88</v>
       </c>
@@ -41769,7 +41764,7 @@
         <v>7.4770997499999988E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>89</v>
       </c>
@@ -41846,7 +41841,7 @@
         <v>6.5894527499999996E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>90</v>
       </c>
@@ -41923,7 +41918,7 @@
         <v>3.3974065000000001E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>91</v>
       </c>
@@ -42000,7 +41995,7 @@
         <v>3.7938217000000003E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>92</v>
       </c>
@@ -42077,7 +42072,7 @@
         <v>5.2194799999999994E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>93</v>
       </c>
@@ -42154,7 +42149,7 @@
         <v>3.3597685249999995E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>94</v>
       </c>
@@ -42231,7 +42226,7 @@
         <v>1.3981056000000002E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>95</v>
       </c>
@@ -42308,7 +42303,7 @@
         <v>1.3620943E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>97</v>
       </c>
@@ -42385,7 +42380,7 @@
         <v>6.768510000000001E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>99</v>
       </c>
@@ -42462,7 +42457,7 @@
         <v>3.9224831499999994E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>100</v>
       </c>
@@ -42539,7 +42534,7 @@
         <v>1.7580183000000003E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>102</v>
       </c>
@@ -42616,7 +42611,7 @@
         <v>4.9673695750000003E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>105</v>
       </c>
@@ -42693,7 +42688,7 @@
         <v>2.28377675E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>104</v>
       </c>
@@ -42770,7 +42765,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>45</v>
       </c>
@@ -42847,7 +42842,7 @@
         <v>2.9046114999999998E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>40</v>
       </c>
@@ -42924,7 +42919,7 @@
         <v>1.9208248250000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>73</v>
       </c>
@@ -43001,7 +42996,7 @@
         <v>1.5386212749999999E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>25</v>
       </c>
@@ -43078,7 +43073,7 @@
         <v>1.37666725E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>59</v>
       </c>
@@ -43155,7 +43150,7 @@
         <v>3.7937950999999998E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>96</v>
       </c>
@@ -43232,7 +43227,7 @@
         <v>2.217219925E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>41</v>
       </c>
@@ -43309,7 +43304,7 @@
         <v>2.08543315E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>98</v>
       </c>
@@ -43386,7 +43381,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>24</v>
       </c>
@@ -43463,7 +43458,7 @@
         <v>8.3888582500000017E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>60</v>
       </c>
@@ -43540,7 +43535,7 @@
         <v>2.4741058250000003E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>21</v>
       </c>
@@ -43617,7 +43612,7 @@
         <v>1.4816437500000002E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>86</v>
       </c>
@@ -43694,7 +43689,7 @@
         <v>4.8025705500000009E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>54</v>
       </c>
@@ -43771,7 +43766,7 @@
         <v>3.7874905000000003E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>22</v>
       </c>
@@ -43848,7 +43843,7 @@
         <v>1.1390539E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>103</v>
       </c>
@@ -43925,7 +43920,7 @@
         <v>7.2343908250000005E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>69</v>
       </c>
@@ -44002,7 +43997,7 @@
         <v>2.60446545E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>13</v>
       </c>
@@ -44079,7 +44074,7 @@
         <v>2.9062900999999995E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>51</v>
       </c>
@@ -44156,7 +44151,7 @@
         <v>3.93808825E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>101</v>
       </c>
@@ -44233,7 +44228,7 @@
         <v>6.9112708999999994E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>37</v>
       </c>
@@ -44323,9 +44318,9 @@
       <selection activeCell="B2" sqref="B2:Y101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -44402,7 +44397,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -44479,7 +44474,7 @@
         <v>4.9798386443776916</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>6</v>
       </c>
@@ -44556,7 +44551,7 @@
         <v>8.9718279126606935E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>7</v>
       </c>
@@ -44633,7 +44628,7 @@
         <v>3.6457907823548866E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>8</v>
       </c>
@@ -44710,7 +44705,7 @@
         <v>3.7314908939889376E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>9</v>
       </c>
@@ -44787,7 +44782,7 @@
         <v>0.25035689647717152</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>10</v>
       </c>
@@ -44864,7 +44859,7 @@
         <v>1.5957746573691658</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>11</v>
       </c>
@@ -44941,7 +44936,7 @@
         <v>0.29638741937695612</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>12</v>
       </c>
@@ -45018,7 +45013,7 @@
         <v>9.4288294617464669E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>14</v>
       </c>
@@ -45095,7 +45090,7 @@
         <v>0.86315925220063994</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>15</v>
       </c>
@@ -45172,7 +45167,7 @@
         <v>1.1464509923355822E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>16</v>
       </c>
@@ -45249,7 +45244,7 @@
         <v>1.3090521636855187E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>17</v>
       </c>
@@ -45326,7 +45321,7 @@
         <v>2.6014421721666237E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>18</v>
       </c>
@@ -45403,7 +45398,7 @@
         <v>6.9605692602960137E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>19</v>
       </c>
@@ -45480,7 +45475,7 @@
         <v>2.6071687673902111E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>20</v>
       </c>
@@ -45557,7 +45552,7 @@
         <v>0.50484862575992662</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>23</v>
       </c>
@@ -45634,7 +45629,7 @@
         <v>3.0731480383188195E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>26</v>
       </c>
@@ -45711,7 +45706,7 @@
         <v>1.3092960769504237E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>27</v>
       </c>
@@ -45788,7 +45783,7 @@
         <v>2.5401555702710679E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>28</v>
       </c>
@@ -45865,7 +45860,7 @@
         <v>3.5779543843706289E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>29</v>
       </c>
@@ -45942,7 +45937,7 @@
         <v>1.6001540128385804E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>30</v>
       </c>
@@ -46019,7 +46014,7 @@
         <v>7.8652034199330367E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>31</v>
       </c>
@@ -46096,7 +46091,7 @@
         <v>9.7096264749646083E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>32</v>
       </c>
@@ -46173,7 +46168,7 @@
         <v>6.0610592900591405E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>33</v>
       </c>
@@ -46250,7 +46245,7 @@
         <v>0.23938661599894764</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>34</v>
       </c>
@@ -46327,7 +46322,7 @@
         <v>7.5914776115945171E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>35</v>
       </c>
@@ -46404,7 +46399,7 @@
         <v>5.1726887428275381E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>36</v>
       </c>
@@ -46481,7 +46476,7 @@
         <v>4.202406283409176E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>38</v>
       </c>
@@ -46558,7 +46553,7 @@
         <v>4.2541298049266124E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>39</v>
       </c>
@@ -46635,7 +46630,7 @@
         <v>6.8638445995315572E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>42</v>
       </c>
@@ -46712,7 +46707,7 @@
         <v>2.1753688353171085E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43</v>
       </c>
@@ -46789,7 +46784,7 @@
         <v>6.2069528382310023E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>44</v>
       </c>
@@ -46866,7 +46861,7 @@
         <v>4.9535940368630189E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>46</v>
       </c>
@@ -46943,7 +46938,7 @@
         <v>5.1745228184220109E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>47</v>
       </c>
@@ -47020,7 +47015,7 @@
         <v>0.14120943995873361</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>48</v>
       </c>
@@ -47097,7 +47092,7 @@
         <v>8.0999248280510725E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>49</v>
       </c>
@@ -47174,7 +47169,7 @@
         <v>1.3054909967174179E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>50</v>
       </c>
@@ -47251,7 +47246,7 @@
         <v>2.8013014533514362E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>52</v>
       </c>
@@ -47328,7 +47323,7 @@
         <v>5.8801582455171369E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>53</v>
       </c>
@@ -47405,7 +47400,7 @@
         <v>0.11455537734517104</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>55</v>
       </c>
@@ -47482,7 +47477,7 @@
         <v>1.7412812109669485E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>56</v>
       </c>
@@ -47559,7 +47554,7 @@
         <v>5.1307734188938371E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>57</v>
       </c>
@@ -47636,7 +47631,7 @@
         <v>4.7173713018704329E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>58</v>
       </c>
@@ -47713,7 +47708,7 @@
         <v>6.329223647977565E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>61</v>
       </c>
@@ -47790,7 +47785,7 @@
         <v>0.36299160005331305</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>62</v>
       </c>
@@ -47867,7 +47862,7 @@
         <v>1.0540005260214018E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>63</v>
       </c>
@@ -47944,7 +47939,7 @@
         <v>6.9248658861948884E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>64</v>
       </c>
@@ -48021,7 +48016,7 @@
         <v>0.12473582814552976</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>65</v>
       </c>
@@ -48098,7 +48093,7 @@
         <v>0.24660151184282636</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>66</v>
       </c>
@@ -48175,7 +48170,7 @@
         <v>0.11210504753519317</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>67</v>
       </c>
@@ -48252,7 +48247,7 @@
         <v>1.520054069845578E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>68</v>
       </c>
@@ -48329,7 +48324,7 @@
         <v>6.4237222223673049E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>70</v>
       </c>
@@ -48406,7 +48401,7 @@
         <v>4.0398705475176724E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>71</v>
       </c>
@@ -48483,7 +48478,7 @@
         <v>5.6815542646417834E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>72</v>
       </c>
@@ -48560,7 +48555,7 @@
         <v>5.2400460236403214E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>74</v>
       </c>
@@ -48637,7 +48632,7 @@
         <v>4.983772258075698E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>75</v>
       </c>
@@ -48714,7 +48709,7 @@
         <v>6.2983660071595809E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>76</v>
       </c>
@@ -48791,7 +48786,7 @@
         <v>6.2660925832969333E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>77</v>
       </c>
@@ -48868,7 +48863,7 @@
         <v>1.3832332779854448E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>78</v>
       </c>
@@ -48945,7 +48940,7 @@
         <v>2.9474612517307569E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>79</v>
       </c>
@@ -49022,7 +49017,7 @@
         <v>7.015240067097718E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>81</v>
       </c>
@@ -49099,7 +49094,7 @@
         <v>1.1523444230028082E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>82</v>
       </c>
@@ -49176,7 +49171,7 @@
         <v>4.2461408386045389E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>83</v>
       </c>
@@ -49253,7 +49248,7 @@
         <v>4.5214129038603133E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>84</v>
       </c>
@@ -49330,7 +49325,7 @@
         <v>6.535339194259423E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>85</v>
       </c>
@@ -49407,7 +49402,7 @@
         <v>7.487733528208894E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>87</v>
       </c>
@@ -49484,7 +49479,7 @@
         <v>2.1456802721610661E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>88</v>
       </c>
@@ -49561,7 +49556,7 @@
         <v>1.2475964465437014E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>89</v>
       </c>
@@ -49638,7 +49633,7 @@
         <v>6.7190774531657952E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>90</v>
       </c>
@@ -49715,7 +49710,7 @@
         <v>1.2321478123444972E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>91</v>
       </c>
@@ -49792,7 +49787,7 @@
         <v>1.8891203657514923E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>92</v>
       </c>
@@ -49869,7 +49864,7 @@
         <v>8.9182868761375023E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>93</v>
       </c>
@@ -49946,7 +49941,7 @@
         <v>2.6128400453804903E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>94</v>
       </c>
@@ -50023,7 +50018,7 @@
         <v>2.3630041606499622E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>95</v>
       </c>
@@ -50100,7 +50095,7 @@
         <v>6.9634572450963231E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>97</v>
       </c>
@@ -50177,7 +50172,7 @@
         <v>6.1522798412818333E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>99</v>
       </c>
@@ -50254,7 +50249,7 @@
         <v>0.1356410180815264</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>100</v>
       </c>
@@ -50331,7 +50326,7 @@
         <v>1.3363491242348376E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>102</v>
       </c>
@@ -50408,7 +50403,7 @@
         <v>0.1558486302366289</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>105</v>
       </c>
@@ -50485,7 +50480,7 @@
         <v>1.492787476779513E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>104</v>
       </c>
@@ -50562,7 +50557,7 @@
         <v>6.3236046277811958E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>45</v>
       </c>
@@ -50639,7 +50634,7 @@
         <v>1.1350233994151576E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>40</v>
       </c>
@@ -50716,7 +50711,7 @@
         <v>1.0062755996441108E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>73</v>
       </c>
@@ -50793,7 +50788,7 @@
         <v>7.8792028688716518E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>25</v>
       </c>
@@ -50870,7 +50865,7 @@
         <v>6.2940950327540438E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>59</v>
       </c>
@@ -50947,7 +50942,7 @@
         <v>1.9257498352590618E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>96</v>
       </c>
@@ -51024,7 +51019,7 @@
         <v>8.9598474183534282E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>41</v>
       </c>
@@ -51101,7 +51096,7 @@
         <v>9.4196276206577455E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>98</v>
       </c>
@@ -51178,7 +51173,7 @@
         <v>2.529441851112478E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>24</v>
       </c>
@@ -51255,7 +51250,7 @@
         <v>3.5782263513688524E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>60</v>
       </c>
@@ -51332,7 +51327,7 @@
         <v>1.0516921134254925E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>21</v>
       </c>
@@ -51409,7 +51404,7 @@
         <v>3.9706624863358752E-4</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>86</v>
       </c>
@@ -51486,7 +51481,7 @@
         <v>2.4347415836170661E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>54</v>
       </c>
@@ -51563,7 +51558,7 @@
         <v>2.8121721901470218E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>22</v>
       </c>
@@ -51640,7 +51635,7 @@
         <v>3.2399924006309222E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>103</v>
       </c>
@@ -51717,7 +51712,7 @@
         <v>2.0933471249280682E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>69</v>
       </c>
@@ -51794,7 +51789,7 @@
         <v>1.1538196916914066E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>13</v>
       </c>
@@ -51871,7 +51866,7 @@
         <v>1.309507796048706E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>51</v>
       </c>
@@ -51948,7 +51943,7 @@
         <v>6.6432638297787578E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>101</v>
       </c>
@@ -52025,7 +52020,7 @@
         <v>2.745644608854127E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>37</v>
       </c>
@@ -52115,9 +52110,9 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -52194,7 +52189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -52271,7 +52266,7 @@
         <v>4.9798386443776916</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>6</v>
       </c>
@@ -52348,7 +52343,7 @@
         <v>7.5829359084072763E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>7</v>
       </c>
@@ -52425,7 +52420,7 @@
         <v>2.0630891709108402E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>8</v>
       </c>
@@ -52502,7 +52497,7 @@
         <v>2.9813577029428073E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>9</v>
       </c>
@@ -52579,7 +52574,7 @@
         <v>6.4166987780718476E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>10</v>
       </c>
@@ -52656,7 +52651,7 @@
         <v>1.587689276913377</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>11</v>
       </c>
@@ -52733,7 +52728,7 @@
         <v>0.23967342131670788</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>12</v>
       </c>
@@ -52810,7 +52805,7 @@
         <v>1.0971870320356438E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>14</v>
       </c>
@@ -52887,7 +52882,7 @@
         <v>5.7841813087815178E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>15</v>
       </c>
@@ -52964,7 +52959,7 @@
         <v>1.2879561894235777E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>16</v>
       </c>
@@ -53041,7 +53036,7 @@
         <v>1.0920182968291848E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>17</v>
       </c>
@@ -53118,7 +53113,7 @@
         <v>1.4765067402386608E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>18</v>
       </c>
@@ -53195,7 +53190,7 @@
         <v>5.9300532628678588E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>19</v>
       </c>
@@ -53272,7 +53267,7 @@
         <v>2.3829171991239052E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>20</v>
       </c>
@@ -53349,7 +53344,7 @@
         <v>2.3498884177359982E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>23</v>
       </c>
@@ -53426,7 +53421,7 @@
         <v>4.4527330941764517E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>26</v>
       </c>
@@ -53503,7 +53498,7 @@
         <v>1.1519923856157474E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>27</v>
       </c>
@@ -53580,7 +53575,7 @@
         <v>1.5722373174043131E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>28</v>
       </c>
@@ -53657,7 +53652,7 @@
         <v>1.978815985176972E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>29</v>
       </c>
@@ -53734,7 +53729,7 @@
         <v>1.2671144131541048E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>30</v>
       </c>
@@ -53811,7 +53806,7 @@
         <v>7.0755723026300552E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>31</v>
       </c>
@@ -53888,7 +53883,7 @@
         <v>4.4516747790599269E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>32</v>
       </c>
@@ -53965,7 +53960,7 @@
         <v>3.5918111912158782E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>33</v>
       </c>
@@ -54042,7 +54037,7 @@
         <v>1.5328553793078809E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>34</v>
       </c>
@@ -54119,7 +54114,7 @@
         <v>4.8728385993843744E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>35</v>
       </c>
@@ -54196,7 +54191,7 @@
         <v>9.8705476238995652E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>36</v>
       </c>
@@ -54273,7 +54268,7 @@
         <v>5.0586102373044155E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>38</v>
       </c>
@@ -54350,7 +54345,7 @@
         <v>3.3361031881302856E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>39</v>
       </c>
@@ -54427,7 +54422,7 @@
         <v>5.644525864132998E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>42</v>
       </c>
@@ -54504,7 +54499,7 @@
         <v>1.5879497683137943E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43</v>
       </c>
@@ -54581,7 +54576,7 @@
         <v>2.4168948394866722E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>44</v>
       </c>
@@ -54658,7 +54653,7 @@
         <v>7.3796190119633917E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>46</v>
       </c>
@@ -54735,7 +54730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>47</v>
       </c>
@@ -54812,7 +54807,7 @@
         <v>0.1913412557970742</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>48</v>
       </c>
@@ -54889,7 +54884,7 @@
         <v>6.9339210572875076E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>49</v>
       </c>
@@ -54966,7 +54961,7 @@
         <v>1.7887415143871883E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>50</v>
       </c>
@@ -55043,7 +55038,7 @@
         <v>1.7426903467219429E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>52</v>
       </c>
@@ -55120,7 +55115,7 @@
         <v>1.8007219540185199E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>53</v>
       </c>
@@ -55197,7 +55192,7 @@
         <v>7.9995472190511202E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>55</v>
       </c>
@@ -55274,7 +55269,7 @@
         <v>1.4419507984824375E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>56</v>
       </c>
@@ -55351,7 +55346,7 @@
         <v>5.4807614170907168E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>57</v>
       </c>
@@ -55428,7 +55423,7 @@
         <v>2.0213256459697703E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>58</v>
       </c>
@@ -55505,7 +55500,7 @@
         <v>6.9614483931726718E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>61</v>
       </c>
@@ -55582,7 +55577,7 @@
         <v>0.26903609181093924</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>62</v>
       </c>
@@ -55659,7 +55654,7 @@
         <v>2.7421407033624621E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>63</v>
       </c>
@@ -55736,7 +55731,7 @@
         <v>5.6090483441861112E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>64</v>
       </c>
@@ -55813,7 +55808,7 @@
         <v>3.341433904593899E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>65</v>
       </c>
@@ -55890,7 +55885,7 @@
         <v>7.0425283439044625E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>66</v>
       </c>
@@ -55967,7 +55962,7 @@
         <v>2.9000120911660338E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>67</v>
       </c>
@@ -56044,7 +56039,7 @@
         <v>1.6734490523909393E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>68</v>
       </c>
@@ -56121,7 +56116,7 @@
         <v>5.6332314145493612E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>70</v>
       </c>
@@ -56198,7 +56193,7 @@
         <v>3.103935927422842E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>71</v>
       </c>
@@ -56275,7 +56270,7 @@
         <v>1.0447064879685604E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>72</v>
       </c>
@@ -56352,7 +56347,7 @@
         <v>9.9490509621994096E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>74</v>
       </c>
@@ -56429,7 +56424,7 @@
         <v>4.7008528510785498E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>75</v>
       </c>
@@ -56506,7 +56501,7 @@
         <v>6.5620866583371906E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>76</v>
       </c>
@@ -56583,7 +56578,7 @@
         <v>3.1614991249355445E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>77</v>
       </c>
@@ -56660,7 +56655,7 @@
         <v>4.2978611069204795E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>78</v>
       </c>
@@ -56737,7 +56732,7 @@
         <v>8.4191189686718963E-5</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>79</v>
       </c>
@@ -56814,7 +56809,7 @@
         <v>6.1885125010200201E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>81</v>
       </c>
@@ -56891,7 +56886,7 @@
         <v>1.9605943937468819E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>82</v>
       </c>
@@ -56968,7 +56963,7 @@
         <v>3.2618525782739968E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>83</v>
       </c>
@@ -57045,7 +57040,7 @@
         <v>2.7552270521920441E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>84</v>
       </c>
@@ -57122,7 +57117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>85</v>
       </c>
@@ -57199,7 +57194,7 @@
         <v>6.1275952143415155E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>87</v>
       </c>
@@ -57276,7 +57271,7 @@
         <v>1.9986646640543942E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>88</v>
       </c>
@@ -57353,7 +57348,7 @@
         <v>4.0377819921573735E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>89</v>
       </c>
@@ -57430,7 +57425,7 @@
         <v>3.4129133247067281E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>90</v>
       </c>
@@ -57507,7 +57502,7 @@
         <v>2.676343627248149E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>91</v>
       </c>
@@ -57584,7 +57579,7 @@
         <v>2.0106936455505646E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>92</v>
       </c>
@@ -57661,7 +57656,7 @@
         <v>2.0833553610573964E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>93</v>
       </c>
@@ -57738,7 +57733,7 @@
         <v>1.911165967461087E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>94</v>
       </c>
@@ -57815,7 +57810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>95</v>
       </c>
@@ -57892,7 +57887,7 @@
         <v>4.7226501976519513E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>97</v>
       </c>
@@ -57969,7 +57964,7 @@
         <v>5.1643318573473234E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>99</v>
       </c>
@@ -58046,7 +58041,7 @@
         <v>4.059417831365178E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>100</v>
       </c>
@@ -58123,7 +58118,7 @@
         <v>9.8595181181196385E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>102</v>
       </c>
@@ -58200,7 +58195,7 @@
         <v>3.7963100628567677E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>105</v>
       </c>
@@ -58277,7 +58272,7 @@
         <v>1.1664274554308138E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>104</v>
       </c>
@@ -58354,7 +58349,7 @@
         <v>6.3236046277811958E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>45</v>
       </c>
@@ -58431,7 +58426,7 @@
         <v>1.6018693406341204E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>40</v>
       </c>
@@ -58508,7 +58503,7 @@
         <v>7.8976875556492337E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>73</v>
       </c>
@@ -58585,7 +58580,7 @@
         <v>6.2579431827096627E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>25</v>
       </c>
@@ -58662,7 +58657,7 @@
         <v>7.2516343151128775E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>59</v>
       </c>
@@ -58739,7 +58734,7 @@
         <v>1.6694454052161981E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>96</v>
       </c>
@@ -58816,7 +58811,7 @@
         <v>1.2565460263898815E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>41</v>
       </c>
@@ -58893,7 +58888,7 @@
         <v>8.2911504365145317E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>98</v>
       </c>
@@ -58970,7 +58965,7 @@
         <v>2.529441851112478E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>24</v>
       </c>
@@ -59047,7 +59042,7 @@
         <v>3.4383162630376975E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>60</v>
       </c>
@@ -59124,7 +59119,7 @@
         <v>9.3550153999228114E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>21</v>
       </c>
@@ -59201,7 +59196,7 @@
         <v>1.9839221662054877E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>86</v>
       </c>
@@ -59278,7 +59273,7 @@
         <v>2.2777854186805169E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>54</v>
       </c>
@@ -59355,7 +59350,7 @@
         <v>6.1475786944295086E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>22</v>
       </c>
@@ -59432,7 +59427,7 @@
         <v>4.0971948507481076E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>103</v>
       </c>
@@ -59509,7 +59504,7 @@
         <v>2.0110399368272396E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>69</v>
       </c>
@@ -59586,7 +59581,7 @@
         <v>9.1840438051825259E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>13</v>
       </c>
@@ -59663,7 +59658,7 @@
         <v>1.262777345912626E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>51</v>
       </c>
@@ -59740,7 +59735,7 @@
         <v>3.9257283351393744E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>101</v>
       </c>
@@ -59817,7 +59812,7 @@
         <v>2.4433673854352814E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>37</v>
       </c>
@@ -59907,9 +59902,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -59986,7 +59981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -60063,7 +60058,7 @@
         <v>4.9798386443776916</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
@@ -60140,7 +60135,7 @@
         <v>4.9664284675027563E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7</v>
       </c>
@@ -60217,7 +60212,7 @@
         <v>2.714363780321595E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8</v>
       </c>
@@ -60294,7 +60289,7 @@
         <v>3.2145184965102183E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
@@ -60371,7 +60366,7 @@
         <v>2.917871514176059E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -60448,7 +60443,7 @@
         <v>1.7294147842647951</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
@@ -60525,7 +60520,7 @@
         <v>0.14172517524309233</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>12</v>
       </c>
@@ -60602,7 +60597,7 @@
         <v>7.2504255431283431E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>14</v>
       </c>
@@ -60679,7 +60674,7 @@
         <v>8.3536433959589498E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>15</v>
       </c>
@@ -60756,7 +60751,7 @@
         <v>1.0863435222876919E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>16</v>
       </c>
@@ -60833,7 +60828,7 @@
         <v>1.2440396982941679E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>17</v>
       </c>
@@ -60910,7 +60905,7 @@
         <v>1.3851936008521374E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18</v>
       </c>
@@ -60987,7 +60982,7 @@
         <v>4.7468301941240246E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>19</v>
       </c>
@@ -61064,7 +61059,7 @@
         <v>2.4092278120338841E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20</v>
       </c>
@@ -61141,7 +61136,7 @@
         <v>8.0502590717506456E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>23</v>
       </c>
@@ -61218,7 +61213,7 @@
         <v>3.6793105666268207E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>26</v>
       </c>
@@ -61295,7 +61290,7 @@
         <v>1.3754770692648799E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>27</v>
       </c>
@@ -61372,7 +61367,7 @@
         <v>2.7467936780530382E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>28</v>
       </c>
@@ -61449,7 +61444,7 @@
         <v>2.1135384236486792E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>29</v>
       </c>
@@ -61526,7 +61521,7 @@
         <v>8.6370842373627785E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>30</v>
       </c>
@@ -61603,7 +61598,7 @@
         <v>5.8660369303360965E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>31</v>
       </c>
@@ -61680,7 +61675,7 @@
         <v>4.4746877215150836E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32</v>
       </c>
@@ -61757,7 +61752,7 @@
         <v>6.4205798730720867E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>33</v>
       </c>
@@ -61834,7 +61829,7 @@
         <v>7.3061975842521346E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>34</v>
       </c>
@@ -61911,7 +61906,7 @@
         <v>5.8594180613510667E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>35</v>
       </c>
@@ -61988,7 +61983,7 @@
         <v>2.2403498701711734E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>36</v>
       </c>
@@ -62065,7 +62060,7 @@
         <v>4.8782664508091851E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>38</v>
       </c>
@@ -62142,7 +62137,7 @@
         <v>2.8079837469577526E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>39</v>
       </c>
@@ -62219,7 +62214,7 @@
         <v>4.9116034410191193E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>42</v>
       </c>
@@ -62296,7 +62291,7 @@
         <v>1.5761020951655547E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>43</v>
       </c>
@@ -62373,7 +62368,7 @@
         <v>3.0229574407156568E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>44</v>
       </c>
@@ -62450,7 +62445,7 @@
         <v>1.0817934589121499E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>46</v>
       </c>
@@ -62527,7 +62522,7 @@
         <v>1.1766800736393622E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>47</v>
       </c>
@@ -62604,7 +62599,7 @@
         <v>9.4974891118273591E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>48</v>
       </c>
@@ -62681,7 +62676,7 @@
         <v>6.8947084521712965E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>49</v>
       </c>
@@ -62758,7 +62753,7 @@
         <v>2.5753000981483115E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>50</v>
       </c>
@@ -62835,7 +62830,7 @@
         <v>3.0038369410423354E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>52</v>
       </c>
@@ -62912,7 +62907,7 @@
         <v>1.6592231864862366E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>53</v>
       </c>
@@ -62989,7 +62984,7 @@
         <v>1.7356791339517948E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>55</v>
       </c>
@@ -63066,7 +63061,7 @@
         <v>9.2439688483240464E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>56</v>
       </c>
@@ -63143,7 +63138,7 @@
         <v>1.4439045380988593E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>57</v>
       </c>
@@ -63220,7 +63215,7 @@
         <v>1.6798474593391678E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>58</v>
       </c>
@@ -63297,7 +63292,7 @@
         <v>7.2427072585401764E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>61</v>
       </c>
@@ -63374,7 +63369,7 @@
         <v>0.27871168518742112</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>62</v>
       </c>
@@ -63451,7 +63446,7 @@
         <v>2.4094360425453744E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>63</v>
       </c>
@@ -63528,7 +63523,7 @@
         <v>4.7746610767629297E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>64</v>
       </c>
@@ -63605,7 +63600,7 @@
         <v>5.7458908582105638E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>65</v>
       </c>
@@ -63682,7 +63677,7 @@
         <v>5.0360901164522319E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>66</v>
       </c>
@@ -63759,7 +63754,7 @@
         <v>1.8725575868872586E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>67</v>
       </c>
@@ -63836,7 +63831,7 @@
         <v>1.0779399777009842E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>68</v>
       </c>
@@ -63913,7 +63908,7 @@
         <v>5.455442736055717E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>70</v>
       </c>
@@ -63990,7 +63985,7 @@
         <v>2.7369942666749175E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>71</v>
       </c>
@@ -64067,7 +64062,7 @@
         <v>1.5927705262311221E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>72</v>
       </c>
@@ -64144,7 +64139,7 @@
         <v>2.1476966423102221E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>74</v>
       </c>
@@ -64221,7 +64216,7 @@
         <v>3.9529790981264069E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>75</v>
       </c>
@@ -64298,7 +64293,7 @@
         <v>5.8625001111476942E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>76</v>
       </c>
@@ -64375,7 +64370,7 @@
         <v>3.0038918868471268E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>77</v>
       </c>
@@ -64452,7 +64447,7 @@
         <v>3.4925737268771623E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>78</v>
       </c>
@@ -64529,7 +64524,7 @@
         <v>9.1176034874507518E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>79</v>
       </c>
@@ -64606,7 +64601,7 @@
         <v>5.6279456281284536E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>81</v>
       </c>
@@ -64683,7 +64678,7 @@
         <v>1.5492002961349355E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>82</v>
       </c>
@@ -64760,7 +64755,7 @@
         <v>3.3519996882739973E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>83</v>
       </c>
@@ -64837,7 +64832,7 @@
         <v>1.788030881978556E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>84</v>
       </c>
@@ -64914,7 +64909,7 @@
         <v>3.8128719067457677E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>85</v>
       </c>
@@ -64991,7 +64986,7 @@
         <v>1.0117877903084337E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>87</v>
       </c>
@@ -65068,7 +65063,7 @@
         <v>3.1076170145704902E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>88</v>
       </c>
@@ -65145,7 +65140,7 @@
         <v>3.8306318253368129E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>89</v>
       </c>
@@ -65222,7 +65217,7 @@
         <v>3.3758767783863232E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>90</v>
       </c>
@@ -65299,7 +65294,7 @@
         <v>1.7405429775771218E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>91</v>
       </c>
@@ -65376,7 +65371,7 @@
         <v>1.9436325085369383E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>92</v>
       </c>
@@ -65453,7 +65448,7 @@
         <v>2.674018920198168E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>93</v>
       </c>
@@ -65530,7 +65525,7 @@
         <v>1.7212604710308867E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>94</v>
       </c>
@@ -65607,7 +65602,7 @@
         <v>7.1627074475522686E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>95</v>
       </c>
@@ -65684,7 +65679,7 @@
         <v>6.9782160853074995E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>97</v>
       </c>
@@ -65761,7 +65756,7 @@
         <v>3.4676105285489167E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>99</v>
       </c>
@@ -65838,7 +65833,7 @@
         <v>2.0095477245354917E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>100</v>
       </c>
@@ -65915,7 +65910,7 @@
         <v>9.0065949026619883E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>102</v>
       </c>
@@ -65992,7 +65987,7 @@
         <v>2.5448589183533096E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>105</v>
       </c>
@@ -66069,7 +66064,7 @@
         <v>1.1700135337253293E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>104</v>
       </c>
@@ -66146,7 +66141,7 @@
         <v>6.3236046277811958E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>45</v>
       </c>
@@ -66223,7 +66218,7 @@
         <v>1.1479759202066551E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>40</v>
       </c>
@@ -66300,7 +66295,7 @@
         <v>7.5915854703293784E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>73</v>
       </c>
@@ -66377,7 +66372,7 @@
         <v>6.081020384370377E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>25</v>
       </c>
@@ -66454,7 +66449,7 @@
         <v>5.4409371206342568E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>59</v>
       </c>
@@ -66531,7 +66526,7 @@
         <v>1.4994037657008515E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>96</v>
       </c>
@@ -66608,7 +66603,7 @@
         <v>8.7630138615866719E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>41</v>
       </c>
@@ -66685,7 +66680,7 @@
         <v>8.2421591989176989E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>98</v>
       </c>
@@ -66762,7 +66757,7 @@
         <v>2.529441851112478E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>24</v>
       </c>
@@ -66839,7 +66834,7 @@
         <v>3.3154889282187787E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>60</v>
       </c>
@@ -66916,7 +66911,7 @@
         <v>9.7782919028690067E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>21</v>
       </c>
@@ -66993,7 +66988,7 @@
         <v>5.8558307963894277E-4</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>86</v>
       </c>
@@ -67070,7 +67065,7 @@
         <v>1.898097334701605E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>54</v>
       </c>
@@ -67147,7 +67142,7 @@
         <v>1.4969120283423322E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>22</v>
       </c>
@@ -67224,7 +67219,7 @@
         <v>4.5018290708326364E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>103</v>
       </c>
@@ -67301,7 +67296,7 @@
         <v>2.8592142062592387E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>69</v>
       </c>
@@ -67378,7 +67373,7 @@
         <v>1.0293506107822648E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>13</v>
       </c>
@@ -67455,7 +67450,7 @@
         <v>1.1486393453771671E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>51</v>
       </c>
@@ -67532,7 +67527,7 @@
         <v>1.5564320676444219E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>101</v>
       </c>
@@ -67609,7 +67604,7 @@
         <v>2.7315090404430947E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>37</v>
       </c>
@@ -67699,9 +67694,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -67778,7 +67773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -67868,9 +67863,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -67947,7 +67942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -68048,7 +68043,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
@@ -68149,7 +68144,7 @@
         <v>8.7561602500000008E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7</v>
       </c>
@@ -68250,7 +68245,7 @@
         <v>3.5581520999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8</v>
       </c>
@@ -68351,7 +68346,7 @@
         <v>3.6417921250000008E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
@@ -68452,7 +68447,7 @@
         <v>2.4433873750000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -68553,7 +68548,7 @@
         <v>0.15574149168750001</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
@@ -68654,7 +68649,7 @@
         <v>2.8926276400000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>12</v>
       </c>
@@ -68755,7 +68750,7 @@
         <v>9.2021762500000008E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>14</v>
       </c>
@@ -68856,7 +68851,7 @@
         <v>8.4241035462500016E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>15</v>
       </c>
@@ -68957,7 +68952,7 @@
         <v>1.1188922375000002E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>16</v>
       </c>
@@ -69058,7 +69053,7 @@
         <v>1.2775847500000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>17</v>
       </c>
@@ -69159,7 +69154,7 @@
         <v>2.5389078749999999E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18</v>
       </c>
@@ -69260,7 +69255,7 @@
         <v>6.7932488750000006E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>19</v>
       </c>
@@ -69361,7 +69356,7 @@
         <v>2.5444968124999998E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20</v>
       </c>
@@ -69462,7 +69457,7 @@
         <v>4.9271291337499995E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>23</v>
       </c>
@@ -69563,7 +69558,7 @@
         <v>2.9992747250000003E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>26</v>
       </c>
@@ -69664,7 +69659,7 @@
         <v>1.2778228000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>27</v>
       </c>
@@ -69765,7 +69760,7 @@
         <v>2.4790945000000003E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>28</v>
       </c>
@@ -69866,7 +69861,7 @@
         <v>3.4919463749999999E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>29</v>
       </c>
@@ -69967,7 +69962,7 @@
         <v>1.5616889999999998E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>30</v>
       </c>
@@ -70068,7 +70063,7 @@
         <v>7.6761371499999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>31</v>
       </c>
@@ -70169,7 +70164,7 @@
         <v>9.4762233750000013E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32</v>
       </c>
@@ -70270,7 +70265,7 @@
         <v>5.9153616125000013E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>33</v>
       </c>
@@ -70371,7 +70366,7 @@
         <v>2.3363216412500002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>34</v>
       </c>
@@ -70472,7 +70467,7 @@
         <v>7.4089912500000015E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>35</v>
       </c>
@@ -70573,7 +70568,7 @@
         <v>5.0483460000000011E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>36</v>
       </c>
@@ -70674,7 +70669,7 @@
         <v>4.1013875000000003E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>38</v>
       </c>
@@ -70775,7 +70770,7 @@
         <v>4.1518676749999995E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>39</v>
       </c>
@@ -70876,7 +70871,7 @@
         <v>6.6988493124999996E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>42</v>
       </c>
@@ -70977,7 +70972,7 @@
         <v>2.1230766249999999E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>43</v>
       </c>
@@ -71078,7 +71073,7 @@
         <v>6.0577481249999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>44</v>
       </c>
@@ -71179,7 +71174,7 @@
         <v>4.8345179624999998E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>46</v>
       </c>
@@ -71280,7 +71275,7 @@
         <v>5.0501359875E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>47</v>
       </c>
@@ -71381,7 +71376,7 @@
         <v>1.3781500237500001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>48</v>
       </c>
@@ -71482,7 +71477,7 @@
         <v>7.9052162499999989E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>49</v>
       </c>
@@ -71583,7 +71578,7 @@
         <v>1.2741091875000002E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>50</v>
       </c>
@@ -71684,7 +71679,7 @@
         <v>2.7339628749999996E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>52</v>
       </c>
@@ -71785,7 +71780,7 @@
         <v>5.7388091249999996E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>53</v>
       </c>
@@ -71886,7 +71881,7 @@
         <v>1.1180165862500001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>55</v>
       </c>
@@ -71987,7 +71982,7 @@
         <v>1.6994237374999999E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>56</v>
       </c>
@@ -72088,7 +72083,7 @@
         <v>5.0074382500000006E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>57</v>
       </c>
@@ -72189,7 +72184,7 @@
         <v>4.6039736250000005E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>58</v>
       </c>
@@ -72290,7 +72285,7 @@
         <v>6.1770797500000012E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>61</v>
       </c>
@@ -72391,7 +72386,7 @@
         <v>3.5426589212500005E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>62</v>
       </c>
@@ -72492,7 +72487,7 @@
         <v>1.0286641250000001E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>63</v>
       </c>
@@ -72593,7 +72588,7 @@
         <v>6.7584037500000008E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>64</v>
       </c>
@@ -72694,7 +72689,7 @@
         <v>1.2173738850000003E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>65</v>
       </c>
@@ -72795,7 +72790,7 @@
         <v>2.4067362600000003E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>66</v>
       </c>
@@ -72896,7 +72891,7 @@
         <v>1.0941023062499999E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>67</v>
       </c>
@@ -72997,7 +72992,7 @@
         <v>1.4835145250000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>68</v>
       </c>
@@ -73098,7 +73093,7 @@
         <v>6.2693067375E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>70</v>
       </c>
@@ -73199,7 +73194,7 @@
         <v>3.9427588500000003E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>71</v>
       </c>
@@ -73300,7 +73295,7 @@
         <v>5.5449792500000014E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>72</v>
       </c>
@@ -73401,7 +73396,7 @@
         <v>5.1140841249999996E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>74</v>
       </c>
@@ -73502,7 +73497,7 @@
         <v>4.8639707500000004E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>75</v>
       </c>
@@ -73603,7 +73598,7 @@
         <v>6.1469638749999996E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>76</v>
       </c>
@@ -73704,7 +73699,7 @@
         <v>6.1154662500000013E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>77</v>
       </c>
@@ -73805,7 +73800,7 @@
         <v>1.3499826750000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>78</v>
       </c>
@@ -73906,7 +73901,7 @@
         <v>2.8766092375000006E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>79</v>
       </c>
@@ -74007,7 +74002,7 @@
         <v>6.8466054875000008E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>81</v>
       </c>
@@ -74108,7 +74103,7 @@
         <v>1.124644E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>82</v>
       </c>
@@ -74209,7 +74204,7 @@
         <v>4.1440707500000002E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>83</v>
       </c>
@@ -74310,7 +74305,7 @@
         <v>4.4127257375000005E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>84</v>
       </c>
@@ -74411,7 +74406,7 @@
         <v>6.3782406250000002E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>85</v>
       </c>
@@ -74512,7 +74507,7 @@
         <v>7.3077410000000004E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>87</v>
       </c>
@@ -74613,7 +74608,7 @@
         <v>2.0941017249999998E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>88</v>
       </c>
@@ -74714,7 +74709,7 @@
         <v>1.217606325E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>89</v>
       </c>
@@ -74815,7 +74810,7 @@
         <v>6.5575621250000009E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>90</v>
       </c>
@@ -74916,7 +74911,7 @@
         <v>1.2025290500000002E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>91</v>
       </c>
@@ -75017,7 +75012,7 @@
         <v>1.8437090875000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>92</v>
       </c>
@@ -75118,7 +75113,7 @@
         <v>8.7039062499999999E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>93</v>
       </c>
@@ -75219,7 +75214,7 @@
         <v>2.5500317625000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>94</v>
       </c>
@@ -75320,7 +75315,7 @@
         <v>2.3062015125000002E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>95</v>
       </c>
@@ -75421,7 +75416,7 @@
         <v>6.7960674375000009E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>97</v>
       </c>
@@ -75522,7 +75517,7 @@
         <v>6.0043893749999995E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>99</v>
       </c>
@@ -75623,7 +75618,7 @@
         <v>1.3238043599999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>100</v>
       </c>
@@ -75724,7 +75719,7 @@
         <v>1.3042255375000002E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>102</v>
       </c>
@@ -75825,7 +75820,7 @@
         <v>1.5210229112499999E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>105</v>
       </c>
@@ -75926,7 +75921,7 @@
         <v>1.456903375E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>104</v>
       </c>
@@ -76027,7 +76022,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>45</v>
       </c>
@@ -76128,7 +76123,7 @@
         <v>1.4359194999999999E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>40</v>
       </c>
@@ -76229,7 +76224,7 @@
         <v>1.2730405000000002E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>73</v>
       </c>
@@ -76330,7 +76325,7 @@
         <v>9.9679892500000012E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>25</v>
       </c>
@@ -76431,7 +76426,7 @@
         <v>7.9626673750000021E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>59</v>
       </c>
@@ -76532,7 +76527,7 @@
         <v>2.4362684875000001E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>96</v>
       </c>
@@ -76633,7 +76628,7 @@
         <v>1.1335114000000002E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>41</v>
       </c>
@@ -76734,7 +76729,7 @@
         <v>1.1916782500000001E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>98</v>
       </c>
@@ -76835,7 +76830,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>24</v>
       </c>
@@ -76936,7 +76931,7 @@
         <v>4.5268185624999999E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>60</v>
       </c>
@@ -77037,7 +77032,7 @@
         <v>1.3304969875000002E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>21</v>
       </c>
@@ -77138,7 +77133,7 @@
         <v>5.0232900000000005E-5</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>86</v>
       </c>
@@ -77239,7 +77234,7 @@
         <v>3.0801945749999999E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>54</v>
       </c>
@@ -77340,7 +77335,7 @@
         <v>3.5576824999999994E-4</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>22</v>
       </c>
@@ -77441,7 +77436,7 @@
         <v>4.0989183749999992E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>103</v>
       </c>
@@ -77542,7 +77537,7 @@
         <v>2.648296025E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>69</v>
       </c>
@@ -77643,7 +77638,7 @@
         <v>1.4596987124999999E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>13</v>
       </c>
@@ -77744,7 +77739,7 @@
         <v>1.6566599250000002E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>51</v>
       </c>
@@ -77845,7 +77840,7 @@
         <v>8.4044012500000007E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>101</v>
       </c>
@@ -77946,7 +77941,7 @@
         <v>3.4735183749999999E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>37</v>
       </c>
